--- a/Domenique/results.xlsx
+++ b/Domenique/results.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\Mac\Home\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\Mac\Home\Desktop\Eclipse Mars\Test\Domenique\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="345" windowWidth="25725" windowHeight="14850"/>
+    <workbookView xWindow="0" yWindow="1270" windowWidth="25730" windowHeight="14850"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="64">
   <si>
     <t>CT1_I_UUT</t>
   </si>
@@ -213,6 +213,9 @@
   </si>
   <si>
     <t>[R]</t>
+  </si>
+  <si>
+    <t>[-]</t>
   </si>
 </sst>
 </file>
@@ -566,13 +569,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AY22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+    <sheetView tabSelected="1" topLeftCell="AD1" workbookViewId="0">
+      <selection activeCell="AG3" sqref="AG3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:51" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:51" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -727,7 +730,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="2" spans="1:51" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:51" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>51</v>
       </c>
@@ -824,9 +827,21 @@
       <c r="AF2" t="s">
         <v>58</v>
       </c>
+      <c r="AG2" t="s">
+        <v>63</v>
+      </c>
       <c r="AH2" t="s">
         <v>59</v>
       </c>
+      <c r="AI2" t="s">
+        <v>63</v>
+      </c>
+      <c r="AL2" t="s">
+        <v>63</v>
+      </c>
+      <c r="AM2" t="s">
+        <v>63</v>
+      </c>
       <c r="AN2" t="s">
         <v>60</v>
       </c>
@@ -836,6 +851,12 @@
       <c r="AP2" t="s">
         <v>60</v>
       </c>
+      <c r="AQ2" t="s">
+        <v>63</v>
+      </c>
+      <c r="AR2" t="s">
+        <v>63</v>
+      </c>
       <c r="AS2" t="s">
         <v>59</v>
       </c>
@@ -845,6 +866,9 @@
       <c r="AU2" t="s">
         <v>58</v>
       </c>
+      <c r="AV2" t="s">
+        <v>63</v>
+      </c>
       <c r="AW2" t="s">
         <v>62</v>
       </c>
@@ -855,7 +879,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="3" spans="1:51" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:51" x14ac:dyDescent="0.35">
       <c r="A3">
         <v>14.28</v>
       </c>
@@ -1010,7 +1034,7 @@
         <v>62.85</v>
       </c>
     </row>
-    <row r="4" spans="1:51" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:51" x14ac:dyDescent="0.35">
       <c r="A4">
         <v>14.3</v>
       </c>
@@ -1165,7 +1189,7 @@
         <v>59.85</v>
       </c>
     </row>
-    <row r="5" spans="1:51" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:51" x14ac:dyDescent="0.35">
       <c r="A5">
         <v>14.35</v>
       </c>
@@ -1320,7 +1344,7 @@
         <v>70.459999999999994</v>
       </c>
     </row>
-    <row r="6" spans="1:51" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:51" x14ac:dyDescent="0.35">
       <c r="A6">
         <v>13.92</v>
       </c>
@@ -1475,7 +1499,7 @@
         <v>51.51</v>
       </c>
     </row>
-    <row r="7" spans="1:51" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:51" x14ac:dyDescent="0.35">
       <c r="A7">
         <v>11.01</v>
       </c>
@@ -1630,7 +1654,7 @@
         <v>41.62</v>
       </c>
     </row>
-    <row r="8" spans="1:51" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:51" x14ac:dyDescent="0.35">
       <c r="A8">
         <v>11.15</v>
       </c>
@@ -1785,7 +1809,7 @@
         <v>46.12</v>
       </c>
     </row>
-    <row r="9" spans="1:51" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:51" x14ac:dyDescent="0.35">
       <c r="A9">
         <v>10.9</v>
       </c>
@@ -1940,7 +1964,7 @@
         <v>48.4</v>
       </c>
     </row>
-    <row r="10" spans="1:51" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:51" x14ac:dyDescent="0.35">
       <c r="A10">
         <v>11.16</v>
       </c>
@@ -2095,7 +2119,7 @@
         <v>53.11</v>
       </c>
     </row>
-    <row r="11" spans="1:51" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:51" x14ac:dyDescent="0.35">
       <c r="A11">
         <v>11.29</v>
       </c>
@@ -2250,7 +2274,7 @@
         <v>57.82</v>
       </c>
     </row>
-    <row r="12" spans="1:51" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:51" x14ac:dyDescent="0.35">
       <c r="A12">
         <v>11.38</v>
       </c>
@@ -2405,7 +2429,7 @@
         <v>62.22</v>
       </c>
     </row>
-    <row r="13" spans="1:51" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:51" x14ac:dyDescent="0.35">
       <c r="A13">
         <v>12.82</v>
       </c>
@@ -2560,7 +2584,7 @@
         <v>59.86</v>
       </c>
     </row>
-    <row r="14" spans="1:51" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:51" x14ac:dyDescent="0.35">
       <c r="A14">
         <v>12.69</v>
       </c>
@@ -2715,7 +2739,7 @@
         <v>55.31</v>
       </c>
     </row>
-    <row r="15" spans="1:51" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:51" x14ac:dyDescent="0.35">
       <c r="A15">
         <v>13.04</v>
       </c>
@@ -2870,7 +2894,7 @@
         <v>54.49</v>
       </c>
     </row>
-    <row r="16" spans="1:51" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:51" x14ac:dyDescent="0.35">
       <c r="A16">
         <v>12.58</v>
       </c>
@@ -3025,7 +3049,7 @@
         <v>46.38</v>
       </c>
     </row>
-    <row r="17" spans="1:51" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:51" x14ac:dyDescent="0.35">
       <c r="A17">
         <v>12.85</v>
       </c>
@@ -3180,7 +3204,7 @@
         <v>46.15</v>
       </c>
     </row>
-    <row r="18" spans="1:51" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:51" x14ac:dyDescent="0.35">
       <c r="A18">
         <v>15.34</v>
       </c>
@@ -3335,7 +3359,7 @@
         <v>68.89</v>
       </c>
     </row>
-    <row r="19" spans="1:51" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:51" x14ac:dyDescent="0.35">
       <c r="A19">
         <v>15.35</v>
       </c>
@@ -3490,7 +3514,7 @@
         <v>66.44</v>
       </c>
     </row>
-    <row r="20" spans="1:51" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:51" x14ac:dyDescent="0.35">
       <c r="A20">
         <v>12.08</v>
       </c>
@@ -3645,7 +3669,7 @@
         <v>64.2</v>
       </c>
     </row>
-    <row r="21" spans="1:51" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:51" x14ac:dyDescent="0.35">
       <c r="A21">
         <v>12</v>
       </c>
@@ -3800,7 +3824,7 @@
         <v>59.81</v>
       </c>
     </row>
-    <row r="22" spans="1:51" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:51" x14ac:dyDescent="0.35">
       <c r="A22">
         <v>12.18</v>
       </c>

--- a/Domenique/results.xlsx
+++ b/Domenique/results.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\Mac\Home\Desktop\Eclipse Mars\Test\Domenique\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\Mac\Home\Desktop\Test\Domenique\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="1270" windowWidth="25730" windowHeight="14850"/>
+    <workbookView xWindow="0" yWindow="1620" windowWidth="25725" windowHeight="14850"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -570,12 +570,12 @@
   <dimension ref="A1:AY22"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="AD1" workbookViewId="0">
-      <selection activeCell="AG3" sqref="AG3"/>
+      <selection activeCell="AU1" sqref="AU1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:51" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -730,7 +730,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="2" spans="1:51" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>51</v>
       </c>
@@ -879,7 +879,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="3" spans="1:51" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>14.28</v>
       </c>
@@ -1034,7 +1034,7 @@
         <v>62.85</v>
       </c>
     </row>
-    <row r="4" spans="1:51" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>14.3</v>
       </c>
@@ -1189,7 +1189,7 @@
         <v>59.85</v>
       </c>
     </row>
-    <row r="5" spans="1:51" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>14.35</v>
       </c>
@@ -1344,7 +1344,7 @@
         <v>70.459999999999994</v>
       </c>
     </row>
-    <row r="6" spans="1:51" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>13.92</v>
       </c>
@@ -1499,7 +1499,7 @@
         <v>51.51</v>
       </c>
     </row>
-    <row r="7" spans="1:51" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>11.01</v>
       </c>
@@ -1654,7 +1654,7 @@
         <v>41.62</v>
       </c>
     </row>
-    <row r="8" spans="1:51" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>11.15</v>
       </c>
@@ -1809,7 +1809,7 @@
         <v>46.12</v>
       </c>
     </row>
-    <row r="9" spans="1:51" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>10.9</v>
       </c>
@@ -1964,7 +1964,7 @@
         <v>48.4</v>
       </c>
     </row>
-    <row r="10" spans="1:51" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>11.16</v>
       </c>
@@ -2119,7 +2119,7 @@
         <v>53.11</v>
       </c>
     </row>
-    <row r="11" spans="1:51" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>11.29</v>
       </c>
@@ -2274,7 +2274,7 @@
         <v>57.82</v>
       </c>
     </row>
-    <row r="12" spans="1:51" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>11.38</v>
       </c>
@@ -2429,7 +2429,7 @@
         <v>62.22</v>
       </c>
     </row>
-    <row r="13" spans="1:51" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>12.82</v>
       </c>
@@ -2584,7 +2584,7 @@
         <v>59.86</v>
       </c>
     </row>
-    <row r="14" spans="1:51" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>12.69</v>
       </c>
@@ -2739,7 +2739,7 @@
         <v>55.31</v>
       </c>
     </row>
-    <row r="15" spans="1:51" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>13.04</v>
       </c>
@@ -2894,7 +2894,7 @@
         <v>54.49</v>
       </c>
     </row>
-    <row r="16" spans="1:51" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>12.58</v>
       </c>
@@ -3049,7 +3049,7 @@
         <v>46.38</v>
       </c>
     </row>
-    <row r="17" spans="1:51" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>12.85</v>
       </c>
@@ -3204,7 +3204,7 @@
         <v>46.15</v>
       </c>
     </row>
-    <row r="18" spans="1:51" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>15.34</v>
       </c>
@@ -3359,7 +3359,7 @@
         <v>68.89</v>
       </c>
     </row>
-    <row r="19" spans="1:51" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>15.35</v>
       </c>
@@ -3514,7 +3514,7 @@
         <v>66.44</v>
       </c>
     </row>
-    <row r="20" spans="1:51" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>12.08</v>
       </c>
@@ -3669,7 +3669,7 @@
         <v>64.2</v>
       </c>
     </row>
-    <row r="21" spans="1:51" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>12</v>
       </c>
@@ -3824,7 +3824,7 @@
         <v>59.81</v>
       </c>
     </row>
-    <row r="22" spans="1:51" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>12.18</v>
       </c>

--- a/Domenique/results.xlsx
+++ b/Domenique/results.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\Mac\Home\Desktop\Test\Domenique\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\Mac\Home\Desktop\Eclipse Mars\Test\Domenique\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="1620" windowWidth="25725" windowHeight="14850"/>
+    <workbookView xWindow="0" yWindow="2080" windowWidth="25730" windowHeight="14850"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="65">
   <si>
     <t>CT1_I_UUT</t>
   </si>
@@ -216,6 +216,9 @@
   </si>
   <si>
     <t>[-]</t>
+  </si>
+  <si>
+    <t>[%]</t>
   </si>
 </sst>
 </file>
@@ -569,13 +572,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AY22"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AD1" workbookViewId="0">
-      <selection activeCell="AU1" sqref="AU1"/>
+    <sheetView tabSelected="1" topLeftCell="AC1" workbookViewId="0">
+      <selection activeCell="AL1" sqref="AL1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:51" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:51" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -730,7 +733,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="2" spans="1:51" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:51" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>51</v>
       </c>
@@ -837,7 +840,7 @@
         <v>63</v>
       </c>
       <c r="AL2" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="AM2" t="s">
         <v>63</v>
@@ -879,7 +882,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="3" spans="1:51" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:51" x14ac:dyDescent="0.35">
       <c r="A3">
         <v>14.28</v>
       </c>
@@ -1034,7 +1037,7 @@
         <v>62.85</v>
       </c>
     </row>
-    <row r="4" spans="1:51" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:51" x14ac:dyDescent="0.35">
       <c r="A4">
         <v>14.3</v>
       </c>
@@ -1189,7 +1192,7 @@
         <v>59.85</v>
       </c>
     </row>
-    <row r="5" spans="1:51" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:51" x14ac:dyDescent="0.35">
       <c r="A5">
         <v>14.35</v>
       </c>
@@ -1344,7 +1347,7 @@
         <v>70.459999999999994</v>
       </c>
     </row>
-    <row r="6" spans="1:51" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:51" x14ac:dyDescent="0.35">
       <c r="A6">
         <v>13.92</v>
       </c>
@@ -1499,7 +1502,7 @@
         <v>51.51</v>
       </c>
     </row>
-    <row r="7" spans="1:51" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:51" x14ac:dyDescent="0.35">
       <c r="A7">
         <v>11.01</v>
       </c>
@@ -1654,7 +1657,7 @@
         <v>41.62</v>
       </c>
     </row>
-    <row r="8" spans="1:51" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:51" x14ac:dyDescent="0.35">
       <c r="A8">
         <v>11.15</v>
       </c>
@@ -1809,7 +1812,7 @@
         <v>46.12</v>
       </c>
     </row>
-    <row r="9" spans="1:51" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:51" x14ac:dyDescent="0.35">
       <c r="A9">
         <v>10.9</v>
       </c>
@@ -1964,7 +1967,7 @@
         <v>48.4</v>
       </c>
     </row>
-    <row r="10" spans="1:51" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:51" x14ac:dyDescent="0.35">
       <c r="A10">
         <v>11.16</v>
       </c>
@@ -2119,7 +2122,7 @@
         <v>53.11</v>
       </c>
     </row>
-    <row r="11" spans="1:51" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:51" x14ac:dyDescent="0.35">
       <c r="A11">
         <v>11.29</v>
       </c>
@@ -2274,7 +2277,7 @@
         <v>57.82</v>
       </c>
     </row>
-    <row r="12" spans="1:51" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:51" x14ac:dyDescent="0.35">
       <c r="A12">
         <v>11.38</v>
       </c>
@@ -2429,7 +2432,7 @@
         <v>62.22</v>
       </c>
     </row>
-    <row r="13" spans="1:51" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:51" x14ac:dyDescent="0.35">
       <c r="A13">
         <v>12.82</v>
       </c>
@@ -2584,7 +2587,7 @@
         <v>59.86</v>
       </c>
     </row>
-    <row r="14" spans="1:51" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:51" x14ac:dyDescent="0.35">
       <c r="A14">
         <v>12.69</v>
       </c>
@@ -2739,7 +2742,7 @@
         <v>55.31</v>
       </c>
     </row>
-    <row r="15" spans="1:51" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:51" x14ac:dyDescent="0.35">
       <c r="A15">
         <v>13.04</v>
       </c>
@@ -2894,7 +2897,7 @@
         <v>54.49</v>
       </c>
     </row>
-    <row r="16" spans="1:51" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:51" x14ac:dyDescent="0.35">
       <c r="A16">
         <v>12.58</v>
       </c>
@@ -3049,7 +3052,7 @@
         <v>46.38</v>
       </c>
     </row>
-    <row r="17" spans="1:51" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:51" x14ac:dyDescent="0.35">
       <c r="A17">
         <v>12.85</v>
       </c>
@@ -3204,7 +3207,7 @@
         <v>46.15</v>
       </c>
     </row>
-    <row r="18" spans="1:51" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:51" x14ac:dyDescent="0.35">
       <c r="A18">
         <v>15.34</v>
       </c>
@@ -3359,7 +3362,7 @@
         <v>68.89</v>
       </c>
     </row>
-    <row r="19" spans="1:51" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:51" x14ac:dyDescent="0.35">
       <c r="A19">
         <v>15.35</v>
       </c>
@@ -3514,7 +3517,7 @@
         <v>66.44</v>
       </c>
     </row>
-    <row r="20" spans="1:51" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:51" x14ac:dyDescent="0.35">
       <c r="A20">
         <v>12.08</v>
       </c>
@@ -3669,7 +3672,7 @@
         <v>64.2</v>
       </c>
     </row>
-    <row r="21" spans="1:51" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:51" x14ac:dyDescent="0.35">
       <c r="A21">
         <v>12</v>
       </c>
@@ -3824,7 +3827,7 @@
         <v>59.81</v>
       </c>
     </row>
-    <row r="22" spans="1:51" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:51" x14ac:dyDescent="0.35">
       <c r="A22">
         <v>12.18</v>
       </c>

--- a/Domenique/results.xlsx
+++ b/Domenique/results.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="2080" windowWidth="25730" windowHeight="14850"/>
+    <workbookView xWindow="0" yWindow="4380" windowWidth="25730" windowHeight="14850"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="69">
   <si>
     <t>CT1_I_UUT</t>
   </si>
@@ -215,7 +215,19 @@
     <t>[R]</t>
   </si>
   <si>
-    <t>[-]</t>
+    <t>T_evap_stpt</t>
+  </si>
+  <si>
+    <t>T_cond_stpt</t>
+  </si>
+  <si>
+    <t>eta_vol</t>
+  </si>
+  <si>
+    <t>DVR</t>
+  </si>
+  <si>
+    <t>eta_isen_postinj</t>
   </si>
   <si>
     <t>[%]</t>
@@ -570,187 +582,202 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AY22"/>
+  <dimension ref="A1:BD23"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AC1" workbookViewId="0">
-      <selection activeCell="AL1" sqref="AL1"/>
+    <sheetView tabSelected="1" topLeftCell="AG1" workbookViewId="0">
+      <selection activeCell="AN1" sqref="AN1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:51" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:56" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
+        <v>63</v>
+      </c>
+      <c r="B1" t="s">
+        <v>64</v>
+      </c>
+      <c r="C1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="D1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="E1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="F1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="G1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
+      <c r="H1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" t="s">
+      <c r="I1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" t="s">
+      <c r="J1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" t="s">
+      <c r="K1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" t="s">
+      <c r="L1" t="s">
         <v>9</v>
       </c>
-      <c r="K1" t="s">
+      <c r="M1" t="s">
         <v>10</v>
       </c>
-      <c r="L1" t="s">
+      <c r="N1" t="s">
         <v>11</v>
       </c>
-      <c r="M1" t="s">
+      <c r="O1" t="s">
         <v>12</v>
       </c>
-      <c r="N1" t="s">
+      <c r="P1" t="s">
         <v>13</v>
       </c>
-      <c r="O1" t="s">
+      <c r="Q1" t="s">
         <v>14</v>
       </c>
-      <c r="P1" t="s">
+      <c r="R1" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="S1" t="s">
         <v>16</v>
       </c>
-      <c r="R1" t="s">
+      <c r="T1" t="s">
         <v>17</v>
       </c>
-      <c r="S1" t="s">
+      <c r="U1" t="s">
         <v>18</v>
       </c>
-      <c r="T1" t="s">
+      <c r="V1" t="s">
         <v>19</v>
       </c>
-      <c r="U1" t="s">
+      <c r="W1" t="s">
         <v>20</v>
       </c>
-      <c r="V1" t="s">
+      <c r="X1" t="s">
         <v>21</v>
       </c>
-      <c r="W1" t="s">
+      <c r="Y1" t="s">
         <v>22</v>
       </c>
-      <c r="X1" t="s">
+      <c r="Z1" t="s">
         <v>23</v>
       </c>
-      <c r="Y1" t="s">
+      <c r="AA1" t="s">
         <v>24</v>
       </c>
-      <c r="Z1" t="s">
+      <c r="AB1" t="s">
         <v>25</v>
       </c>
-      <c r="AA1" t="s">
+      <c r="AC1" t="s">
         <v>26</v>
       </c>
-      <c r="AB1" t="s">
+      <c r="AD1" t="s">
         <v>27</v>
       </c>
-      <c r="AC1" t="s">
+      <c r="AE1" t="s">
         <v>28</v>
       </c>
-      <c r="AD1" t="s">
+      <c r="AF1" t="s">
         <v>29</v>
       </c>
-      <c r="AE1" t="s">
+      <c r="AG1" t="s">
         <v>30</v>
       </c>
-      <c r="AF1" t="s">
+      <c r="AH1" t="s">
         <v>31</v>
       </c>
-      <c r="AG1" t="s">
+      <c r="AI1" t="s">
         <v>32</v>
       </c>
-      <c r="AH1" t="s">
+      <c r="AJ1" t="s">
         <v>33</v>
       </c>
-      <c r="AI1" t="s">
+      <c r="AK1" t="s">
+        <v>65</v>
+      </c>
+      <c r="AL1" t="s">
         <v>34</v>
       </c>
-      <c r="AJ1" t="s">
+      <c r="AM1" t="s">
         <v>35</v>
       </c>
-      <c r="AK1" t="s">
+      <c r="AN1" t="s">
+        <v>66</v>
+      </c>
+      <c r="AO1" t="s">
+        <v>67</v>
+      </c>
+      <c r="AP1" t="s">
         <v>36</v>
       </c>
-      <c r="AL1" t="s">
+      <c r="AQ1" t="s">
         <v>37</v>
       </c>
-      <c r="AM1" t="s">
+      <c r="AR1" t="s">
         <v>38</v>
       </c>
-      <c r="AN1" t="s">
+      <c r="AS1" t="s">
         <v>39</v>
       </c>
-      <c r="AO1" t="s">
+      <c r="AT1" t="s">
         <v>40</v>
       </c>
-      <c r="AP1" t="s">
+      <c r="AU1" t="s">
         <v>41</v>
       </c>
-      <c r="AQ1" t="s">
+      <c r="AV1" t="s">
         <v>42</v>
       </c>
-      <c r="AR1" t="s">
+      <c r="AW1" t="s">
         <v>43</v>
       </c>
-      <c r="AS1" t="s">
+      <c r="AX1" t="s">
         <v>44</v>
       </c>
-      <c r="AT1" t="s">
+      <c r="AY1" t="s">
         <v>45</v>
       </c>
-      <c r="AU1" t="s">
+      <c r="AZ1" t="s">
         <v>46</v>
       </c>
-      <c r="AV1" t="s">
+      <c r="BA1" t="s">
         <v>47</v>
       </c>
-      <c r="AW1" t="s">
+      <c r="BB1" t="s">
         <v>48</v>
       </c>
-      <c r="AX1" t="s">
+      <c r="BC1" t="s">
         <v>49</v>
       </c>
-      <c r="AY1" t="s">
+      <c r="BD1" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="2" spans="1:51" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:56" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
+        <v>56</v>
+      </c>
+      <c r="B2" t="s">
+        <v>56</v>
+      </c>
+      <c r="C2" t="s">
         <v>51</v>
-      </c>
-      <c r="B2" t="s">
-        <v>52</v>
-      </c>
-      <c r="C2" t="s">
-        <v>53</v>
       </c>
       <c r="D2" t="s">
         <v>52</v>
       </c>
       <c r="E2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="F2" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="G2" t="s">
         <v>54</v>
@@ -768,19 +795,19 @@
         <v>54</v>
       </c>
       <c r="L2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="M2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="N2" t="s">
         <v>55</v>
       </c>
       <c r="O2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="P2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="Q2" t="s">
         <v>56</v>
@@ -825,3161 +852,3622 @@
         <v>56</v>
       </c>
       <c r="AE2" t="s">
+        <v>56</v>
+      </c>
+      <c r="AF2" t="s">
+        <v>56</v>
+      </c>
+      <c r="AG2" t="s">
         <v>57</v>
       </c>
-      <c r="AF2" t="s">
+      <c r="AH2" t="s">
         <v>58</v>
       </c>
-      <c r="AG2" t="s">
-        <v>63</v>
-      </c>
-      <c r="AH2" t="s">
+      <c r="AJ2" t="s">
         <v>59</v>
       </c>
-      <c r="AI2" t="s">
-        <v>63</v>
-      </c>
-      <c r="AL2" t="s">
-        <v>64</v>
-      </c>
-      <c r="AM2" t="s">
-        <v>63</v>
-      </c>
       <c r="AN2" t="s">
+        <v>68</v>
+      </c>
+      <c r="AR2" t="s">
+        <v>68</v>
+      </c>
+      <c r="AS2" t="s">
         <v>60</v>
       </c>
-      <c r="AO2" t="s">
+      <c r="AT2" t="s">
         <v>60</v>
       </c>
-      <c r="AP2" t="s">
+      <c r="AU2" t="s">
         <v>60</v>
       </c>
-      <c r="AQ2" t="s">
-        <v>63</v>
-      </c>
-      <c r="AR2" t="s">
-        <v>63</v>
-      </c>
-      <c r="AS2" t="s">
+      <c r="AX2" t="s">
         <v>59</v>
       </c>
-      <c r="AT2" t="s">
+      <c r="AY2" t="s">
         <v>61</v>
       </c>
-      <c r="AU2" t="s">
+      <c r="AZ2" t="s">
         <v>58</v>
       </c>
-      <c r="AV2" t="s">
-        <v>63</v>
-      </c>
-      <c r="AW2" t="s">
+      <c r="BB2" t="s">
         <v>62</v>
       </c>
-      <c r="AX2" t="s">
+      <c r="BC2" t="s">
         <v>62</v>
       </c>
-      <c r="AY2" t="s">
+      <c r="BD2" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="3" spans="1:51" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:56" x14ac:dyDescent="0.35">
       <c r="A3">
+        <v>35.86</v>
+      </c>
+      <c r="B3">
+        <v>130.1</v>
+      </c>
+      <c r="C3">
         <v>14.28</v>
       </c>
-      <c r="B3">
+      <c r="D3">
         <v>9.5269999999999992</v>
       </c>
-      <c r="C3">
+      <c r="E3">
         <v>17.66</v>
       </c>
-      <c r="D3">
+      <c r="F3">
         <v>10.73</v>
       </c>
-      <c r="E3">
+      <c r="G3">
         <v>14.8</v>
       </c>
-      <c r="F3">
+      <c r="H3">
         <v>71.94</v>
       </c>
-      <c r="G3">
+      <c r="I3">
         <v>321.8</v>
       </c>
-      <c r="H3">
+      <c r="J3">
         <v>322.39999999999998</v>
       </c>
-      <c r="I3">
+      <c r="K3">
         <v>324.10000000000002</v>
       </c>
-      <c r="J3">
+      <c r="L3">
         <v>315.5</v>
       </c>
-      <c r="K3">
+      <c r="M3">
         <v>73.05</v>
       </c>
-      <c r="L3">
+      <c r="N3">
         <v>78.760000000000005</v>
       </c>
-      <c r="M3">
+      <c r="O3">
         <v>299.5</v>
       </c>
-      <c r="N3">
+      <c r="P3">
         <v>102.2</v>
       </c>
-      <c r="O3">
+      <c r="Q3">
         <v>105.7</v>
       </c>
-      <c r="P3">
+      <c r="R3">
         <v>87.18</v>
       </c>
-      <c r="Q3">
+      <c r="S3">
         <v>95.08</v>
       </c>
-      <c r="R3">
+      <c r="T3">
         <v>109.5</v>
       </c>
-      <c r="S3">
+      <c r="U3">
         <v>82.02</v>
       </c>
-      <c r="T3">
+      <c r="V3">
         <v>82.68</v>
       </c>
-      <c r="U3">
+      <c r="W3">
         <v>110.5</v>
       </c>
-      <c r="V3">
+      <c r="X3">
         <v>54.97</v>
       </c>
-      <c r="W3">
+      <c r="Y3">
         <v>55.91</v>
       </c>
-      <c r="X3">
+      <c r="Z3">
         <v>201.4</v>
       </c>
-      <c r="Y3">
+      <c r="AA3">
         <v>195.4</v>
       </c>
-      <c r="Z3">
+      <c r="AB3">
         <v>109.7</v>
       </c>
-      <c r="AA3">
+      <c r="AC3">
         <v>82.11</v>
       </c>
-      <c r="AB3">
+      <c r="AD3">
         <v>46.1</v>
       </c>
-      <c r="AC3">
+      <c r="AE3">
         <v>56.89</v>
       </c>
-      <c r="AD3">
+      <c r="AF3">
         <v>99.11</v>
       </c>
-      <c r="AE3">
+      <c r="AG3">
         <v>229.8</v>
       </c>
-      <c r="AF3">
+      <c r="AH3">
         <v>794.6</v>
       </c>
-      <c r="AG3">
+      <c r="AI3">
         <v>3.8479999999999999</v>
       </c>
-      <c r="AH3">
+      <c r="AJ3">
         <v>4348</v>
       </c>
-      <c r="AI3">
+      <c r="AK3">
+        <v>89.71</v>
+      </c>
+      <c r="AL3">
         <v>2.823</v>
       </c>
-      <c r="AJ3">
-        <v>1.1259999999999999</v>
-      </c>
-      <c r="AK3">
+      <c r="AM3">
+        <v>1.054</v>
+      </c>
+      <c r="AN3">
+        <v>105.4</v>
+      </c>
+      <c r="AO3">
+        <v>0.74150000000000005</v>
+      </c>
+      <c r="AP3">
         <v>9.6310000000000002</v>
       </c>
-      <c r="AL3">
+      <c r="AQ3">
         <v>66.819999999999993</v>
       </c>
-      <c r="AM3">
+      <c r="AR3">
         <v>5.0839999999999996</v>
       </c>
-      <c r="AN3">
+      <c r="AS3">
         <v>72.14</v>
       </c>
-      <c r="AO3">
+      <c r="AT3">
         <v>571.6</v>
       </c>
-      <c r="AP3">
+      <c r="AU3">
         <v>643.79999999999995</v>
       </c>
-      <c r="AQ3">
+      <c r="AV3">
         <v>0.12620000000000001</v>
       </c>
-      <c r="AR3">
+      <c r="AW3">
         <v>1.6259999999999999</v>
       </c>
-      <c r="AS3">
+      <c r="AX3">
         <v>4580</v>
       </c>
-      <c r="AT3">
+      <c r="AY3">
         <v>43840</v>
       </c>
-      <c r="AU3">
+      <c r="AZ3">
         <v>44114</v>
       </c>
-      <c r="AV3">
+      <c r="BA3">
         <v>4.4740000000000002</v>
       </c>
-      <c r="AW3">
+      <c r="BB3">
         <v>20.05</v>
       </c>
-      <c r="AX3">
+      <c r="BC3">
         <v>47.67</v>
       </c>
-      <c r="AY3">
+      <c r="BD3">
         <v>62.85</v>
       </c>
     </row>
-    <row r="4" spans="1:51" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:56" x14ac:dyDescent="0.35">
       <c r="A4">
+        <v>30.78</v>
+      </c>
+      <c r="B4">
+        <v>130.1</v>
+      </c>
+      <c r="C4">
         <v>14.3</v>
       </c>
-      <c r="B4">
+      <c r="D4">
         <v>8.5719999999999992</v>
       </c>
-      <c r="C4">
+      <c r="E4">
         <v>17.64</v>
       </c>
-      <c r="D4">
+      <c r="F4">
         <v>9.9390000000000001</v>
       </c>
-      <c r="E4">
+      <c r="G4">
         <v>14.8</v>
       </c>
-      <c r="F4">
+      <c r="H4">
         <v>65.2</v>
       </c>
-      <c r="G4">
+      <c r="I4">
         <v>321.5</v>
       </c>
-      <c r="H4">
+      <c r="J4">
         <v>322.2</v>
       </c>
-      <c r="I4">
+      <c r="K4">
         <v>324</v>
       </c>
-      <c r="J4">
+      <c r="L4">
         <v>316.5</v>
       </c>
-      <c r="K4">
+      <c r="M4">
         <v>66.069999999999993</v>
       </c>
-      <c r="L4">
+      <c r="N4">
         <v>72.14</v>
       </c>
-      <c r="M4">
+      <c r="O4">
         <v>300.39999999999998</v>
       </c>
-      <c r="N4">
+      <c r="P4">
         <v>96.34</v>
       </c>
-      <c r="O4">
+      <c r="Q4">
         <v>106.8</v>
       </c>
-      <c r="P4">
+      <c r="R4">
         <v>83.76</v>
       </c>
-      <c r="Q4">
+      <c r="S4">
         <v>94.9</v>
       </c>
-      <c r="R4">
+      <c r="T4">
         <v>109.9</v>
       </c>
-      <c r="S4">
+      <c r="U4">
         <v>75.2</v>
       </c>
-      <c r="T4">
+      <c r="V4">
         <v>75.83</v>
       </c>
-      <c r="U4">
+      <c r="W4">
         <v>111</v>
       </c>
-      <c r="V4">
+      <c r="X4">
         <v>49.34</v>
       </c>
-      <c r="W4">
+      <c r="Y4">
         <v>50.7</v>
       </c>
-      <c r="X4">
+      <c r="Z4">
         <v>206.8</v>
       </c>
-      <c r="Y4">
+      <c r="AA4">
         <v>199.9</v>
       </c>
-      <c r="Z4">
+      <c r="AB4">
         <v>110.2</v>
       </c>
-      <c r="AA4">
+      <c r="AC4">
         <v>75.44</v>
       </c>
-      <c r="AB4">
+      <c r="AD4">
         <v>39.229999999999997</v>
       </c>
-      <c r="AC4">
+      <c r="AE4">
         <v>43.39</v>
       </c>
-      <c r="AD4">
+      <c r="AF4">
         <v>100.7</v>
       </c>
-      <c r="AE4">
+      <c r="AG4">
         <v>230.1</v>
       </c>
-      <c r="AF4">
+      <c r="AH4">
         <v>795.6</v>
       </c>
-      <c r="AG4">
+      <c r="AI4">
         <v>4.1589999999999998</v>
       </c>
-      <c r="AH4">
+      <c r="AJ4">
         <v>4337</v>
       </c>
-      <c r="AI4">
+      <c r="AK4">
+        <v>88.76</v>
+      </c>
+      <c r="AL4">
         <v>2.6019999999999999</v>
       </c>
-      <c r="AJ4">
-        <v>1.1599999999999999</v>
-      </c>
-      <c r="AK4">
+      <c r="AM4">
+        <v>1.004</v>
+      </c>
+      <c r="AN4">
+        <v>100.4</v>
+      </c>
+      <c r="AO4">
+        <v>0.73160000000000003</v>
+      </c>
+      <c r="AP4">
         <v>8.8780000000000001</v>
       </c>
-      <c r="AL4">
+      <c r="AQ4">
         <v>65.69</v>
       </c>
-      <c r="AM4">
+      <c r="AR4">
         <v>5.101</v>
       </c>
-      <c r="AN4">
+      <c r="AS4">
         <v>82.05</v>
       </c>
-      <c r="AO4">
+      <c r="AT4">
         <v>514.29999999999995</v>
       </c>
-      <c r="AP4">
+      <c r="AU4">
         <v>596.4</v>
       </c>
-      <c r="AQ4">
+      <c r="AV4">
         <v>0.1595</v>
       </c>
-      <c r="AR4">
+      <c r="AW4">
         <v>1.7050000000000001</v>
       </c>
-      <c r="AS4">
+      <c r="AX4">
         <v>4571</v>
       </c>
-      <c r="AT4">
+      <c r="AY4">
         <v>40305</v>
       </c>
-      <c r="AU4">
+      <c r="AZ4">
         <v>40576</v>
       </c>
-      <c r="AV4">
+      <c r="BA4">
         <v>4.931</v>
       </c>
-      <c r="AW4">
+      <c r="BB4">
         <v>19.920000000000002</v>
       </c>
-      <c r="AX4">
+      <c r="BC4">
         <v>51.13</v>
       </c>
-      <c r="AY4">
+      <c r="BD4">
         <v>59.85</v>
       </c>
     </row>
-    <row r="5" spans="1:51" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:56" x14ac:dyDescent="0.35">
       <c r="A5">
+        <v>45.73</v>
+      </c>
+      <c r="B5">
+        <v>130</v>
+      </c>
+      <c r="C5">
         <v>14.35</v>
       </c>
-      <c r="B5">
+      <c r="D5">
         <v>11.55</v>
       </c>
-      <c r="C5">
+      <c r="E5">
         <v>17.690000000000001</v>
       </c>
-      <c r="D5">
+      <c r="F5">
         <v>12.61</v>
       </c>
-      <c r="E5">
+      <c r="G5">
         <v>14.8</v>
       </c>
-      <c r="F5">
+      <c r="H5">
         <v>86.51</v>
       </c>
-      <c r="G5">
+      <c r="I5">
         <v>321.10000000000002</v>
       </c>
-      <c r="H5">
+      <c r="J5">
         <v>321.39999999999998</v>
       </c>
-      <c r="I5">
+      <c r="K5">
         <v>322.89999999999998</v>
       </c>
-      <c r="J5">
+      <c r="L5">
         <v>310.7</v>
       </c>
-      <c r="K5">
+      <c r="M5">
         <v>87.86</v>
       </c>
-      <c r="L5">
+      <c r="N5">
         <v>93.26</v>
       </c>
-      <c r="M5">
+      <c r="O5">
         <v>295.60000000000002</v>
       </c>
-      <c r="N5">
+      <c r="P5">
         <v>118.1</v>
       </c>
-      <c r="O5">
+      <c r="Q5">
         <v>102.6</v>
       </c>
-      <c r="P5">
+      <c r="R5">
         <v>84.54</v>
       </c>
-      <c r="Q5">
+      <c r="S5">
         <v>94.84</v>
       </c>
-      <c r="R5">
+      <c r="T5">
         <v>108.3</v>
       </c>
-      <c r="S5">
+      <c r="U5">
         <v>88.08</v>
       </c>
-      <c r="T5">
+      <c r="V5">
         <v>88.5</v>
       </c>
-      <c r="U5">
+      <c r="W5">
         <v>109.5</v>
       </c>
-      <c r="V5">
+      <c r="X5">
         <v>64.92</v>
       </c>
-      <c r="W5">
+      <c r="Y5">
         <v>65.37</v>
       </c>
-      <c r="X5">
+      <c r="Z5">
         <v>193</v>
       </c>
-      <c r="Y5">
+      <c r="AA5">
         <v>188.2</v>
       </c>
-      <c r="Z5">
+      <c r="AB5">
         <v>108.4</v>
       </c>
-      <c r="AA5">
+      <c r="AC5">
         <v>87.98</v>
       </c>
-      <c r="AB5">
+      <c r="AD5">
         <v>55.94</v>
       </c>
-      <c r="AC5">
+      <c r="AE5">
         <v>73.88</v>
       </c>
-      <c r="AD5">
+      <c r="AF5">
         <v>95.01</v>
       </c>
-      <c r="AE5">
+      <c r="AG5">
         <v>230</v>
       </c>
-      <c r="AF5">
+      <c r="AH5">
         <v>794.9</v>
       </c>
-      <c r="AG5">
+      <c r="AI5">
         <v>3.2850000000000001</v>
       </c>
-      <c r="AH5">
+      <c r="AJ5">
         <v>4447</v>
       </c>
-      <c r="AI5">
+      <c r="AK5">
+        <v>90.7</v>
+      </c>
+      <c r="AL5">
         <v>3.3039999999999998</v>
       </c>
-      <c r="AJ5">
-        <v>1.0920000000000001</v>
-      </c>
-      <c r="AK5">
+      <c r="AM5">
+        <v>1.1970000000000001</v>
+      </c>
+      <c r="AN5">
+        <v>119.7</v>
+      </c>
+      <c r="AO5">
+        <v>0.74390000000000001</v>
+      </c>
+      <c r="AP5">
         <v>11.27</v>
       </c>
-      <c r="AL5">
+      <c r="AQ5">
         <v>67.23</v>
       </c>
-      <c r="AM5">
+      <c r="AR5">
         <v>4.9779999999999998</v>
       </c>
-      <c r="AN5">
+      <c r="AS5">
         <v>63.8</v>
       </c>
-      <c r="AO5">
+      <c r="AT5">
         <v>692.7</v>
       </c>
-      <c r="AP5">
+      <c r="AU5">
         <v>756.5</v>
       </c>
-      <c r="AQ5">
+      <c r="AV5">
         <v>9.2100000000000001E-2</v>
       </c>
-      <c r="AR5">
+      <c r="AW5">
         <v>1.536</v>
       </c>
-      <c r="AS5">
+      <c r="AX5">
         <v>4680</v>
       </c>
-      <c r="AT5">
+      <c r="AY5">
         <v>52702</v>
       </c>
-      <c r="AU5">
+      <c r="AZ5">
         <v>52766</v>
       </c>
-      <c r="AV5">
+      <c r="BA5">
         <v>3.7120000000000002</v>
       </c>
-      <c r="AW5">
+      <c r="BB5">
         <v>19.64</v>
       </c>
-      <c r="AX5">
+      <c r="BC5">
         <v>39.03</v>
       </c>
-      <c r="AY5">
+      <c r="BD5">
         <v>70.459999999999994</v>
       </c>
     </row>
-    <row r="6" spans="1:51" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:56" x14ac:dyDescent="0.35">
       <c r="A6">
+        <v>15.51</v>
+      </c>
+      <c r="B6">
+        <v>130</v>
+      </c>
+      <c r="C6">
         <v>13.92</v>
       </c>
-      <c r="B6">
+      <c r="D6">
         <v>6.165</v>
       </c>
-      <c r="C6">
+      <c r="E6">
         <v>17.62</v>
       </c>
-      <c r="D6">
+      <c r="F6">
         <v>7.8339999999999996</v>
       </c>
-      <c r="E6">
+      <c r="G6">
         <v>14.7</v>
       </c>
-      <c r="F6">
+      <c r="H6">
         <v>47.85</v>
       </c>
-      <c r="G6">
+      <c r="I6">
         <v>321.39999999999998</v>
       </c>
-      <c r="H6">
+      <c r="J6">
         <v>322.39999999999998</v>
       </c>
-      <c r="I6">
+      <c r="K6">
         <v>324.5</v>
       </c>
-      <c r="J6">
+      <c r="L6">
         <v>319.8</v>
       </c>
-      <c r="K6">
+      <c r="M6">
         <v>48.35</v>
       </c>
-      <c r="L6">
+      <c r="N6">
         <v>54.94</v>
       </c>
-      <c r="M6">
+      <c r="O6">
         <v>303.3</v>
       </c>
-      <c r="N6">
+      <c r="P6">
         <v>81.319999999999993</v>
       </c>
-      <c r="O6">
+      <c r="Q6">
         <v>111</v>
       </c>
-      <c r="P6">
+      <c r="R6">
         <v>84.84</v>
       </c>
-      <c r="Q6">
+      <c r="S6">
         <v>94.34</v>
       </c>
-      <c r="R6">
+      <c r="T6">
         <v>111.8</v>
       </c>
-      <c r="S6">
+      <c r="U6">
         <v>52.52</v>
       </c>
-      <c r="T6">
+      <c r="V6">
         <v>53.32</v>
       </c>
-      <c r="U6">
+      <c r="W6">
         <v>112.7</v>
       </c>
-      <c r="V6">
+      <c r="X6">
         <v>30.68</v>
       </c>
-      <c r="W6">
+      <c r="Y6">
         <v>33.72</v>
       </c>
-      <c r="X6">
+      <c r="Z6">
         <v>225.1</v>
       </c>
-      <c r="Y6">
+      <c r="AA6">
         <v>215.2</v>
       </c>
-      <c r="Z6">
+      <c r="AB6">
         <v>112.4</v>
       </c>
-      <c r="AA6">
+      <c r="AC6">
         <v>53.87</v>
       </c>
-      <c r="AB6">
+      <c r="AD6">
         <v>20.93</v>
       </c>
-      <c r="AC6">
+      <c r="AE6">
         <v>78.91</v>
       </c>
-      <c r="AD6">
+      <c r="AF6">
         <v>106</v>
       </c>
-      <c r="AE6">
+      <c r="AG6">
         <v>230.2</v>
       </c>
-      <c r="AF6">
+      <c r="AH6">
         <v>900.5</v>
       </c>
-      <c r="AG6">
+      <c r="AI6">
         <v>5.298</v>
       </c>
-      <c r="AH6">
+      <c r="AJ6">
         <v>4220</v>
       </c>
-      <c r="AI6">
+      <c r="AK6">
+        <v>85.59</v>
+      </c>
+      <c r="AL6">
         <v>2.0350000000000001</v>
       </c>
-      <c r="AJ6">
-        <v>1.2709999999999999</v>
-      </c>
-      <c r="AK6">
+      <c r="AM6">
+        <v>0.86339999999999995</v>
+      </c>
+      <c r="AN6">
+        <v>86.34</v>
+      </c>
+      <c r="AO6">
+        <v>0.7026</v>
+      </c>
+      <c r="AP6">
         <v>6.9429999999999996</v>
       </c>
-      <c r="AL6">
+      <c r="AQ6">
         <v>61.56</v>
       </c>
-      <c r="AM6">
+      <c r="AR6">
         <v>5.8849999999999998</v>
       </c>
-      <c r="AN6">
+      <c r="AS6">
         <v>100.1</v>
       </c>
-      <c r="AO6">
+      <c r="AT6">
         <v>369.9</v>
       </c>
-      <c r="AP6">
+      <c r="AU6">
         <v>470</v>
       </c>
-      <c r="AQ6">
+      <c r="AV6">
         <v>0.2707</v>
       </c>
-      <c r="AR6">
+      <c r="AW6">
         <v>2.0070000000000001</v>
       </c>
-      <c r="AS6">
+      <c r="AX6">
         <v>4484</v>
       </c>
-      <c r="AT6">
+      <c r="AY6">
         <v>30366</v>
       </c>
-      <c r="AU6">
+      <c r="AZ6">
         <v>31134</v>
       </c>
-      <c r="AV6">
+      <c r="BA6">
         <v>6.7160000000000002</v>
       </c>
-      <c r="AW6">
+      <c r="BB6">
         <v>18.21</v>
       </c>
-      <c r="AX6">
+      <c r="BC6">
         <v>61.24</v>
       </c>
-      <c r="AY6">
+      <c r="BD6">
         <v>51.51</v>
       </c>
     </row>
-    <row r="7" spans="1:51" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:56" x14ac:dyDescent="0.35">
       <c r="A7">
+        <v>15.29</v>
+      </c>
+      <c r="B7">
+        <v>100.1</v>
+      </c>
+      <c r="C7">
         <v>11.01</v>
       </c>
-      <c r="B7">
+      <c r="D7">
         <v>6.3490000000000002</v>
       </c>
-      <c r="C7">
+      <c r="E7">
         <v>17.55</v>
       </c>
-      <c r="D7">
+      <c r="F7">
         <v>7.2850000000000001</v>
       </c>
-      <c r="E7">
+      <c r="G7">
         <v>14.7</v>
       </c>
-      <c r="F7">
+      <c r="H7">
         <v>47.63</v>
       </c>
-      <c r="G7">
+      <c r="I7">
         <v>211</v>
       </c>
-      <c r="H7">
+      <c r="J7">
         <v>212.3</v>
       </c>
-      <c r="I7">
+      <c r="K7">
         <v>214.4</v>
       </c>
-      <c r="J7">
+      <c r="L7">
         <v>210.1</v>
       </c>
-      <c r="K7">
+      <c r="M7">
         <v>48.15</v>
       </c>
-      <c r="L7">
+      <c r="N7">
         <v>55.9</v>
       </c>
-      <c r="M7">
+      <c r="O7">
         <v>194.6</v>
       </c>
-      <c r="N7">
+      <c r="P7">
         <v>65.489999999999995</v>
       </c>
-      <c r="O7">
+      <c r="Q7">
         <v>76.28</v>
       </c>
-      <c r="P7">
+      <c r="R7">
         <v>80.459999999999994</v>
       </c>
-      <c r="Q7">
+      <c r="S7">
         <v>94.66</v>
       </c>
-      <c r="R7">
+      <c r="T7">
         <v>79.64</v>
       </c>
-      <c r="S7">
+      <c r="U7">
         <v>41.67</v>
       </c>
-      <c r="T7">
+      <c r="V7">
         <v>43.16</v>
       </c>
-      <c r="U7">
+      <c r="W7">
         <v>82.36</v>
       </c>
-      <c r="V7">
+      <c r="X7">
         <v>32.909999999999997</v>
       </c>
-      <c r="W7">
+      <c r="Y7">
         <v>35.409999999999997</v>
       </c>
-      <c r="X7">
+      <c r="Z7">
         <v>177.5</v>
       </c>
-      <c r="Y7">
+      <c r="AA7">
         <v>170.1</v>
       </c>
-      <c r="Z7">
+      <c r="AB7">
         <v>79.34</v>
       </c>
-      <c r="AA7">
+      <c r="AC7">
         <v>43.2</v>
       </c>
-      <c r="AB7">
+      <c r="AD7">
         <v>18.88</v>
       </c>
-      <c r="AC7">
+      <c r="AE7">
         <v>71.59</v>
       </c>
-      <c r="AD7">
+      <c r="AF7">
         <v>71.22</v>
       </c>
-      <c r="AE7">
+      <c r="AG7">
         <v>230.6</v>
       </c>
-      <c r="AF7">
+      <c r="AH7">
         <v>389.8</v>
       </c>
-      <c r="AG7">
+      <c r="AI7">
         <v>3.6760000000000002</v>
       </c>
-      <c r="AH7">
+      <c r="AJ7">
         <v>3040</v>
       </c>
-      <c r="AI7">
+      <c r="AK7">
+        <v>89</v>
+      </c>
+      <c r="AL7">
         <v>3.129</v>
       </c>
-      <c r="AJ7">
-        <v>1.147</v>
-      </c>
-      <c r="AK7">
+      <c r="AM7">
+        <v>1.1240000000000001</v>
+      </c>
+      <c r="AN7">
+        <v>112.4</v>
+      </c>
+      <c r="AO7">
+        <v>0.70660000000000001</v>
+      </c>
+      <c r="AP7">
         <v>10.68</v>
       </c>
-      <c r="AL7">
+      <c r="AQ7">
         <v>64.819999999999993</v>
       </c>
-      <c r="AM7">
+      <c r="AR7">
         <v>3.621</v>
       </c>
-      <c r="AN7">
+      <c r="AS7">
         <v>56.18</v>
       </c>
-      <c r="AO7">
+      <c r="AT7">
         <v>380.9</v>
       </c>
-      <c r="AP7">
+      <c r="AU7">
         <v>437.1</v>
       </c>
-      <c r="AQ7">
+      <c r="AV7">
         <v>0.14749999999999999</v>
       </c>
-      <c r="AR7">
+      <c r="AW7">
         <v>1.6839999999999999</v>
       </c>
-      <c r="AS7">
+      <c r="AX7">
         <v>3154</v>
       </c>
-      <c r="AT7">
+      <c r="AY7">
         <v>33095</v>
       </c>
-      <c r="AU7">
+      <c r="AZ7">
         <v>33680</v>
       </c>
-      <c r="AV7">
+      <c r="BA7">
         <v>4.431</v>
       </c>
-      <c r="AW7">
+      <c r="BB7">
         <v>20.11</v>
       </c>
-      <c r="AX7">
+      <c r="BC7">
         <v>40.74</v>
       </c>
-      <c r="AY7">
+      <c r="BD7">
         <v>41.62</v>
       </c>
     </row>
-    <row r="8" spans="1:51" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:56" x14ac:dyDescent="0.35">
       <c r="A8">
+        <v>20.64</v>
+      </c>
+      <c r="B8">
+        <v>100.2</v>
+      </c>
+      <c r="C8">
         <v>11.15</v>
       </c>
-      <c r="B8">
+      <c r="D8">
         <v>7.1390000000000002</v>
       </c>
-      <c r="C8">
+      <c r="E8">
         <v>17.559999999999999</v>
       </c>
-      <c r="D8">
+      <c r="F8">
         <v>8.06</v>
       </c>
-      <c r="E8">
+      <c r="G8">
         <v>14.7</v>
       </c>
-      <c r="F8">
+      <c r="H8">
         <v>53.22</v>
       </c>
-      <c r="G8">
+      <c r="I8">
         <v>211.4</v>
       </c>
-      <c r="H8">
+      <c r="J8">
         <v>212.4</v>
       </c>
-      <c r="I8">
+      <c r="K8">
         <v>214.4</v>
       </c>
-      <c r="J8">
+      <c r="L8">
         <v>209.3</v>
       </c>
-      <c r="K8">
+      <c r="M8">
         <v>53.84</v>
       </c>
-      <c r="L8">
+      <c r="N8">
         <v>61.23</v>
       </c>
-      <c r="M8">
+      <c r="O8">
         <v>194.1</v>
       </c>
-      <c r="N8">
+      <c r="P8">
         <v>72.42</v>
       </c>
-      <c r="O8">
+      <c r="Q8">
         <v>74.72</v>
       </c>
-      <c r="P8">
+      <c r="R8">
         <v>80.349999999999994</v>
       </c>
-      <c r="Q8">
+      <c r="S8">
         <v>94.6</v>
       </c>
-      <c r="R8">
+      <c r="T8">
         <v>79.19</v>
       </c>
-      <c r="S8">
+      <c r="U8">
         <v>45.94</v>
       </c>
-      <c r="T8">
+      <c r="V8">
         <v>47.29</v>
       </c>
-      <c r="U8">
+      <c r="W8">
         <v>81.93</v>
       </c>
-      <c r="V8">
+      <c r="X8">
         <v>38.22</v>
       </c>
-      <c r="W8">
+      <c r="Y8">
         <v>40.1</v>
       </c>
-      <c r="X8">
+      <c r="Z8">
         <v>171.7</v>
       </c>
-      <c r="Y8">
+      <c r="AA8">
         <v>165.5</v>
       </c>
-      <c r="Z8">
+      <c r="AB8">
         <v>78.849999999999994</v>
       </c>
-      <c r="AA8">
+      <c r="AC8">
         <v>47.15</v>
       </c>
-      <c r="AB8">
+      <c r="AD8">
         <v>24.26</v>
       </c>
-      <c r="AC8">
+      <c r="AE8">
         <v>73.180000000000007</v>
       </c>
-      <c r="AD8">
+      <c r="AF8">
         <v>69.150000000000006</v>
       </c>
-      <c r="AE8">
+      <c r="AG8">
         <v>230.5</v>
       </c>
-      <c r="AF8">
+      <c r="AH8">
         <v>372.9</v>
       </c>
-      <c r="AG8">
+      <c r="AI8">
         <v>3.355</v>
       </c>
-      <c r="AH8">
+      <c r="AJ8">
         <v>3105</v>
       </c>
-      <c r="AI8">
+      <c r="AK8">
+        <v>89.8</v>
+      </c>
+      <c r="AL8">
         <v>3.423</v>
       </c>
-      <c r="AJ8">
-        <v>1.129</v>
-      </c>
-      <c r="AK8">
+      <c r="AM8">
+        <v>1.212</v>
+      </c>
+      <c r="AN8">
+        <v>121.2</v>
+      </c>
+      <c r="AO8">
+        <v>0.70730000000000004</v>
+      </c>
+      <c r="AP8">
         <v>11.68</v>
       </c>
-      <c r="AL8">
+      <c r="AQ8">
         <v>65.13</v>
       </c>
-      <c r="AM8">
+      <c r="AR8">
         <v>3.4</v>
       </c>
-      <c r="AN8">
+      <c r="AS8">
         <v>55.27</v>
       </c>
-      <c r="AO8">
+      <c r="AT8">
         <v>428.3</v>
       </c>
-      <c r="AP8">
+      <c r="AU8">
         <v>483.6</v>
       </c>
-      <c r="AQ8">
+      <c r="AV8">
         <v>0.129</v>
       </c>
-      <c r="AR8">
+      <c r="AW8">
         <v>1.637</v>
       </c>
-      <c r="AS8">
+      <c r="AX8">
         <v>3214</v>
       </c>
-      <c r="AT8">
+      <c r="AY8">
         <v>36988</v>
       </c>
-      <c r="AU8">
+      <c r="AZ8">
         <v>37543</v>
       </c>
-      <c r="AV8">
+      <c r="BA8">
         <v>3.972</v>
       </c>
-      <c r="AW8">
+      <c r="BB8">
         <v>19.47</v>
       </c>
-      <c r="AX8">
+      <c r="BC8">
         <v>35.82</v>
       </c>
-      <c r="AY8">
+      <c r="BD8">
         <v>46.12</v>
       </c>
     </row>
-    <row r="9" spans="1:51" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:56" x14ac:dyDescent="0.35">
       <c r="A9">
+        <v>25.19</v>
+      </c>
+      <c r="B9">
+        <v>99.9</v>
+      </c>
+      <c r="C9">
         <v>10.9</v>
       </c>
-      <c r="B9">
+      <c r="D9">
         <v>7.8520000000000003</v>
       </c>
-      <c r="C9">
+      <c r="E9">
         <v>17.579999999999998</v>
       </c>
-      <c r="D9">
+      <c r="F9">
         <v>8.5890000000000004</v>
       </c>
-      <c r="E9">
+      <c r="G9">
         <v>14.7</v>
       </c>
-      <c r="F9">
+      <c r="H9">
         <v>58.37</v>
       </c>
-      <c r="G9">
+      <c r="I9">
         <v>210.4</v>
       </c>
-      <c r="H9">
+      <c r="J9">
         <v>211.3</v>
       </c>
-      <c r="I9">
+      <c r="K9">
         <v>213.2</v>
       </c>
-      <c r="J9">
+      <c r="L9">
         <v>207.4</v>
       </c>
-      <c r="K9">
+      <c r="M9">
         <v>59.09</v>
       </c>
-      <c r="L9">
+      <c r="N9">
         <v>66.59</v>
       </c>
-      <c r="M9">
+      <c r="O9">
         <v>192.3</v>
       </c>
-      <c r="N9">
+      <c r="P9">
         <v>76.11</v>
       </c>
-      <c r="O9">
+      <c r="Q9">
         <v>73.400000000000006</v>
       </c>
-      <c r="P9">
+      <c r="R9">
         <v>79.989999999999995</v>
       </c>
-      <c r="Q9">
+      <c r="S9">
         <v>94.6</v>
       </c>
-      <c r="R9">
+      <c r="T9">
         <v>78.41</v>
       </c>
-      <c r="S9">
+      <c r="U9">
         <v>53.64</v>
       </c>
-      <c r="T9">
+      <c r="V9">
         <v>55</v>
       </c>
-      <c r="U9">
+      <c r="W9">
         <v>81.489999999999995</v>
       </c>
-      <c r="V9">
+      <c r="X9">
         <v>44.19</v>
       </c>
-      <c r="W9">
+      <c r="Y9">
         <v>45.65</v>
       </c>
-      <c r="X9">
+      <c r="Z9">
         <v>168.3</v>
       </c>
-      <c r="Y9">
+      <c r="AA9">
         <v>162.6</v>
       </c>
-      <c r="Z9">
+      <c r="AB9">
         <v>78.05</v>
       </c>
-      <c r="AA9">
+      <c r="AC9">
         <v>54.48</v>
       </c>
-      <c r="AB9">
+      <c r="AD9">
         <v>29.62</v>
       </c>
-      <c r="AC9">
+      <c r="AE9">
         <v>74.25</v>
       </c>
-      <c r="AD9">
+      <c r="AF9">
         <v>67.5</v>
       </c>
-      <c r="AE9">
+      <c r="AG9">
         <v>229.9</v>
       </c>
-      <c r="AF9">
+      <c r="AH9">
         <v>358.5</v>
       </c>
-      <c r="AG9">
+      <c r="AI9">
         <v>3.089</v>
       </c>
-      <c r="AH9">
+      <c r="AJ9">
         <v>3104</v>
       </c>
-      <c r="AI9">
+      <c r="AK9">
+        <v>90.62</v>
+      </c>
+      <c r="AL9">
         <v>3.6960000000000002</v>
       </c>
-      <c r="AJ9">
-        <v>1.0940000000000001</v>
-      </c>
-      <c r="AK9">
+      <c r="AM9">
+        <v>1.2749999999999999</v>
+      </c>
+      <c r="AN9">
+        <v>127.5</v>
+      </c>
+      <c r="AO9">
+        <v>0.70669999999999999</v>
+      </c>
+      <c r="AP9">
         <v>12.61</v>
       </c>
-      <c r="AL9">
+      <c r="AQ9">
         <v>65.38</v>
       </c>
-      <c r="AM9">
+      <c r="AR9">
         <v>3.274</v>
       </c>
-      <c r="AN9">
+      <c r="AS9">
         <v>44.25</v>
       </c>
-      <c r="AO9">
+      <c r="AT9">
         <v>471.1</v>
       </c>
-      <c r="AP9">
+      <c r="AU9">
         <v>515.4</v>
       </c>
-      <c r="AQ9">
+      <c r="AV9">
         <v>9.393E-2</v>
       </c>
-      <c r="AR9">
+      <c r="AW9">
         <v>1.556</v>
       </c>
-      <c r="AS9">
+      <c r="AX9">
         <v>3209</v>
       </c>
-      <c r="AT9">
+      <c r="AY9">
         <v>40099</v>
       </c>
-      <c r="AU9">
+      <c r="AZ9">
         <v>40464</v>
       </c>
-      <c r="AV9">
+      <c r="BA9">
         <v>3.6040000000000001</v>
       </c>
-      <c r="AW9">
+      <c r="BB9">
         <v>20.46</v>
       </c>
-      <c r="AX9">
+      <c r="BC9">
         <v>33.090000000000003</v>
       </c>
-      <c r="AY9">
+      <c r="BD9">
         <v>48.4</v>
       </c>
     </row>
-    <row r="10" spans="1:51" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:56" x14ac:dyDescent="0.35">
       <c r="A10">
+        <v>30.32</v>
+      </c>
+      <c r="B10">
+        <v>100.2</v>
+      </c>
+      <c r="C10">
         <v>11.16</v>
       </c>
-      <c r="B10">
+      <c r="D10">
         <v>8.7409999999999997</v>
       </c>
-      <c r="C10">
+      <c r="E10">
         <v>17.600000000000001</v>
       </c>
-      <c r="D10">
+      <c r="F10">
         <v>9.4589999999999996</v>
       </c>
-      <c r="E10">
+      <c r="G10">
         <v>14.7</v>
       </c>
-      <c r="F10">
+      <c r="H10">
         <v>64.62</v>
       </c>
-      <c r="G10">
+      <c r="I10">
         <v>211.3</v>
       </c>
-      <c r="H10">
+      <c r="J10">
         <v>212.1</v>
       </c>
-      <c r="I10">
+      <c r="K10">
         <v>213.8</v>
       </c>
-      <c r="J10">
+      <c r="L10">
         <v>206.8</v>
       </c>
-      <c r="K10">
+      <c r="M10">
         <v>65.47</v>
       </c>
-      <c r="L10">
+      <c r="N10">
         <v>72.75</v>
       </c>
-      <c r="M10">
+      <c r="O10">
         <v>192</v>
       </c>
-      <c r="N10">
+      <c r="P10">
         <v>84.09</v>
       </c>
-      <c r="O10">
+      <c r="Q10">
         <v>72.23</v>
       </c>
-      <c r="P10">
+      <c r="R10">
         <v>80.27</v>
       </c>
-      <c r="Q10">
+      <c r="S10">
         <v>94.54</v>
       </c>
-      <c r="R10">
+      <c r="T10">
         <v>78.099999999999994</v>
       </c>
-      <c r="S10">
+      <c r="U10">
         <v>56.24</v>
       </c>
-      <c r="T10">
+      <c r="V10">
         <v>57.42</v>
       </c>
-      <c r="U10">
+      <c r="W10">
         <v>81.099999999999994</v>
       </c>
-      <c r="V10">
+      <c r="X10">
         <v>48.92</v>
       </c>
-      <c r="W10">
+      <c r="Y10">
         <v>50.03</v>
       </c>
-      <c r="X10">
+      <c r="Z10">
         <v>164</v>
       </c>
-      <c r="Y10">
+      <c r="AA10">
         <v>159.1</v>
       </c>
-      <c r="Z10">
+      <c r="AB10">
         <v>77.81</v>
       </c>
-      <c r="AA10">
+      <c r="AC10">
         <v>56.77</v>
       </c>
-      <c r="AB10">
+      <c r="AD10">
         <v>34.32</v>
       </c>
-      <c r="AC10">
+      <c r="AE10">
         <v>75.05</v>
       </c>
-      <c r="AD10">
+      <c r="AF10">
         <v>65.819999999999993</v>
       </c>
-      <c r="AE10">
+      <c r="AG10">
         <v>230.2</v>
       </c>
-      <c r="AF10">
+      <c r="AH10">
         <v>368.7</v>
       </c>
-      <c r="AG10">
+      <c r="AI10">
         <v>2.8420000000000001</v>
       </c>
-      <c r="AH10">
+      <c r="AJ10">
         <v>3170</v>
       </c>
-      <c r="AI10">
+      <c r="AK10">
+        <v>91.25</v>
+      </c>
+      <c r="AL10">
         <v>4.0119999999999996</v>
       </c>
-      <c r="AJ10">
-        <v>1.0820000000000001</v>
-      </c>
-      <c r="AK10">
+      <c r="AM10">
+        <v>1.371</v>
+      </c>
+      <c r="AN10">
+        <v>137.1</v>
+      </c>
+      <c r="AO10">
+        <v>0.70340000000000003</v>
+      </c>
+      <c r="AP10">
         <v>13.69</v>
       </c>
-      <c r="AL10">
+      <c r="AQ10">
         <v>64.97</v>
       </c>
-      <c r="AM10">
+      <c r="AR10">
         <v>3.2970000000000002</v>
       </c>
-      <c r="AN10">
+      <c r="AS10">
         <v>43.08</v>
       </c>
-      <c r="AO10">
+      <c r="AT10">
         <v>524.5</v>
       </c>
-      <c r="AP10">
+      <c r="AU10">
         <v>567.5</v>
       </c>
-      <c r="AQ10">
+      <c r="AV10">
         <v>8.2150000000000001E-2</v>
       </c>
-      <c r="AR10">
+      <c r="AW10">
         <v>1.5289999999999999</v>
       </c>
-      <c r="AS10">
+      <c r="AX10">
         <v>3278</v>
       </c>
-      <c r="AT10">
+      <c r="AY10">
         <v>44654</v>
       </c>
-      <c r="AU10">
+      <c r="AZ10">
         <v>44873</v>
       </c>
-      <c r="AV10">
+      <c r="BA10">
         <v>3.2709999999999999</v>
       </c>
-      <c r="AW10">
+      <c r="BB10">
         <v>19.71</v>
       </c>
-      <c r="AX10">
+      <c r="BC10">
         <v>27.99</v>
       </c>
-      <c r="AY10">
+      <c r="BD10">
         <v>53.11</v>
       </c>
     </row>
-    <row r="11" spans="1:51" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:56" x14ac:dyDescent="0.35">
       <c r="A11">
+        <v>35.47</v>
+      </c>
+      <c r="B11">
+        <v>100.4</v>
+      </c>
+      <c r="C11">
         <v>11.29</v>
       </c>
-      <c r="B11">
+      <c r="D11">
         <v>9.6969999999999992</v>
       </c>
-      <c r="C11">
+      <c r="E11">
         <v>17.62</v>
       </c>
-      <c r="D11">
+      <c r="F11">
         <v>10.39</v>
       </c>
-      <c r="E11">
+      <c r="G11">
         <v>14.7</v>
       </c>
-      <c r="F11">
+      <c r="H11">
         <v>71.400000000000006</v>
       </c>
-      <c r="G11">
+      <c r="I11">
         <v>211.9</v>
       </c>
-      <c r="H11">
+      <c r="J11">
         <v>212.5</v>
       </c>
-      <c r="I11">
+      <c r="K11">
         <v>214.1</v>
       </c>
-      <c r="J11">
+      <c r="L11">
         <v>205.7</v>
       </c>
-      <c r="K11">
+      <c r="M11">
         <v>72.41</v>
       </c>
-      <c r="L11">
+      <c r="N11">
         <v>79.06</v>
       </c>
-      <c r="M11">
+      <c r="O11">
         <v>191.2</v>
       </c>
-      <c r="N11">
+      <c r="P11">
         <v>92.61</v>
       </c>
-      <c r="O11">
+      <c r="Q11">
         <v>70.709999999999994</v>
       </c>
-      <c r="P11">
+      <c r="R11">
         <v>80.180000000000007</v>
       </c>
-      <c r="Q11">
+      <c r="S11">
         <v>93.81</v>
       </c>
-      <c r="R11">
+      <c r="T11">
         <v>77.83</v>
       </c>
-      <c r="S11">
+      <c r="U11">
         <v>58.73</v>
       </c>
-      <c r="T11">
+      <c r="V11">
         <v>59.85</v>
       </c>
-      <c r="U11">
+      <c r="W11">
         <v>80.84</v>
       </c>
-      <c r="V11">
+      <c r="X11">
         <v>53.34</v>
       </c>
-      <c r="W11">
+      <c r="Y11">
         <v>54.14</v>
       </c>
-      <c r="X11">
+      <c r="Z11">
         <v>160.4</v>
       </c>
-      <c r="Y11">
+      <c r="AA11">
         <v>156</v>
       </c>
-      <c r="Z11">
+      <c r="AB11">
         <v>77.569999999999993</v>
       </c>
-      <c r="AA11">
+      <c r="AC11">
         <v>59.1</v>
       </c>
-      <c r="AB11">
+      <c r="AD11">
         <v>39.090000000000003</v>
       </c>
-      <c r="AC11">
+      <c r="AE11">
         <v>75.38</v>
       </c>
-      <c r="AD11">
+      <c r="AF11">
         <v>63.74</v>
       </c>
-      <c r="AE11">
+      <c r="AG11">
         <v>230.3</v>
       </c>
-      <c r="AF11">
+      <c r="AH11">
         <v>359.7</v>
       </c>
-      <c r="AG11">
+      <c r="AI11">
         <v>2.6059999999999999</v>
       </c>
-      <c r="AH11">
+      <c r="AJ11">
         <v>3247</v>
       </c>
-      <c r="AI11">
+      <c r="AK11">
+        <v>91.62</v>
+      </c>
+      <c r="AL11">
         <v>4.3319999999999999</v>
       </c>
-      <c r="AJ11">
-        <v>1.071</v>
-      </c>
-      <c r="AK11">
+      <c r="AM11">
+        <v>1.48</v>
+      </c>
+      <c r="AN11">
+        <v>148</v>
+      </c>
+      <c r="AO11">
+        <v>0.69059999999999999</v>
+      </c>
+      <c r="AP11">
         <v>14.78</v>
       </c>
-      <c r="AL11">
+      <c r="AQ11">
         <v>63.8</v>
       </c>
-      <c r="AM11">
+      <c r="AR11">
         <v>3.1440000000000001</v>
       </c>
-      <c r="AN11">
+      <c r="AS11">
         <v>41.37</v>
       </c>
-      <c r="AO11">
+      <c r="AT11">
         <v>581.79999999999995</v>
       </c>
-      <c r="AP11">
+      <c r="AU11">
         <v>623.20000000000005</v>
       </c>
-      <c r="AQ11">
+      <c r="AV11">
         <v>7.1099999999999997E-2</v>
       </c>
-      <c r="AR11">
+      <c r="AW11">
         <v>1.5029999999999999</v>
       </c>
-      <c r="AS11">
+      <c r="AX11">
         <v>3353</v>
       </c>
-      <c r="AT11">
+      <c r="AY11">
         <v>49411</v>
       </c>
-      <c r="AU11">
+      <c r="AZ11">
         <v>49556</v>
       </c>
-      <c r="AV11">
+      <c r="BA11">
         <v>2.9670000000000001</v>
       </c>
-      <c r="AW11">
+      <c r="BB11">
         <v>18.66</v>
       </c>
-      <c r="AX11">
+      <c r="BC11">
         <v>23.02</v>
       </c>
-      <c r="AY11">
+      <c r="BD11">
         <v>57.82</v>
       </c>
     </row>
-    <row r="12" spans="1:51" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:56" x14ac:dyDescent="0.35">
       <c r="A12">
+        <v>40.21</v>
+      </c>
+      <c r="B12">
+        <v>99.64</v>
+      </c>
+      <c r="C12">
         <v>11.38</v>
       </c>
-      <c r="B12">
+      <c r="D12">
         <v>10.64</v>
       </c>
-      <c r="C12">
+      <c r="E12">
         <v>17.649999999999999</v>
       </c>
-      <c r="D12">
+      <c r="F12">
         <v>11.3</v>
       </c>
-      <c r="E12">
+      <c r="G12">
         <v>14.7</v>
       </c>
-      <c r="F12">
+      <c r="H12">
         <v>78.099999999999994</v>
       </c>
-      <c r="G12">
+      <c r="I12">
         <v>209.6</v>
       </c>
-      <c r="H12">
+      <c r="J12">
         <v>209.9</v>
       </c>
-      <c r="I12">
+      <c r="K12">
         <v>211.1</v>
       </c>
-      <c r="J12">
+      <c r="L12">
         <v>201.3</v>
       </c>
-      <c r="K12">
+      <c r="M12">
         <v>79.39</v>
       </c>
-      <c r="L12">
+      <c r="N12">
         <v>86.37</v>
       </c>
-      <c r="M12">
+      <c r="O12">
         <v>187.3</v>
       </c>
-      <c r="N12">
+      <c r="P12">
         <v>101.1</v>
       </c>
-      <c r="O12">
+      <c r="Q12">
         <v>68.3</v>
       </c>
-      <c r="P12">
+      <c r="R12">
         <v>79.63</v>
       </c>
-      <c r="Q12">
+      <c r="S12">
         <v>93.78</v>
       </c>
-      <c r="R12">
+      <c r="T12">
         <v>77.17</v>
       </c>
-      <c r="S12">
+      <c r="U12">
         <v>60.39</v>
       </c>
-      <c r="T12">
+      <c r="V12">
         <v>61.5</v>
       </c>
-      <c r="U12">
+      <c r="W12">
         <v>80.319999999999993</v>
       </c>
-      <c r="V12">
+      <c r="X12">
         <v>58.54</v>
       </c>
-      <c r="W12">
+      <c r="Y12">
         <v>59.08</v>
       </c>
-      <c r="X12">
+      <c r="Z12">
         <v>157.4</v>
       </c>
-      <c r="Y12">
+      <c r="AA12">
         <v>153.4</v>
       </c>
-      <c r="Z12">
+      <c r="AB12">
         <v>76.88</v>
       </c>
-      <c r="AA12">
+      <c r="AC12">
         <v>60.67</v>
       </c>
-      <c r="AB12">
+      <c r="AD12">
         <v>43.29</v>
       </c>
-      <c r="AC12">
+      <c r="AE12">
         <v>75.34</v>
       </c>
-      <c r="AD12">
+      <c r="AF12">
         <v>60.78</v>
       </c>
-      <c r="AE12">
+      <c r="AG12">
         <v>230.5</v>
       </c>
-      <c r="AF12">
+      <c r="AH12">
         <v>380.8</v>
       </c>
-      <c r="AG12">
+      <c r="AI12">
         <v>2.379</v>
       </c>
-      <c r="AH12">
+      <c r="AJ12">
         <v>3291</v>
       </c>
-      <c r="AI12">
+      <c r="AK12">
+        <v>92.18</v>
+      </c>
+      <c r="AL12">
         <v>4.6890000000000001</v>
       </c>
-      <c r="AJ12">
-        <v>1.0620000000000001</v>
-      </c>
-      <c r="AK12">
+      <c r="AM12">
+        <v>1.607</v>
+      </c>
+      <c r="AN12">
+        <v>160.69999999999999</v>
+      </c>
+      <c r="AO12">
+        <v>0.6754</v>
+      </c>
+      <c r="AP12">
         <v>16</v>
       </c>
-      <c r="AL12">
+      <c r="AQ12">
         <v>62.01</v>
       </c>
-      <c r="AM12">
+      <c r="AR12">
         <v>3.28</v>
       </c>
-      <c r="AN12">
+      <c r="AS12">
         <v>39.380000000000003</v>
       </c>
-      <c r="AO12">
+      <c r="AT12">
         <v>638.5</v>
       </c>
-      <c r="AP12">
+      <c r="AU12">
         <v>677.9</v>
       </c>
-      <c r="AQ12">
+      <c r="AV12">
         <v>6.1679999999999999E-2</v>
       </c>
-      <c r="AR12">
+      <c r="AW12">
         <v>1.482</v>
       </c>
-      <c r="AS12">
+      <c r="AX12">
         <v>3403</v>
       </c>
-      <c r="AT12">
+      <c r="AY12">
         <v>54443</v>
       </c>
-      <c r="AU12">
+      <c r="AZ12">
         <v>54442</v>
       </c>
-      <c r="AV12">
+      <c r="BA12">
         <v>2.6829999999999998</v>
       </c>
-      <c r="AW12">
+      <c r="BB12">
         <v>18.87</v>
       </c>
-      <c r="AX12">
+      <c r="BC12">
         <v>18.100000000000001</v>
       </c>
-      <c r="AY12">
+      <c r="BD12">
         <v>62.22</v>
       </c>
     </row>
-    <row r="13" spans="1:51" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:56" x14ac:dyDescent="0.35">
       <c r="A13">
+        <v>35.659999999999997</v>
+      </c>
+      <c r="B13">
+        <v>120.3</v>
+      </c>
+      <c r="C13">
         <v>12.82</v>
       </c>
-      <c r="B13">
+      <c r="D13">
         <v>9.5619999999999994</v>
       </c>
-      <c r="C13">
+      <c r="E13">
         <v>17.600000000000001</v>
       </c>
-      <c r="D13">
+      <c r="F13">
         <v>10.47</v>
       </c>
-      <c r="E13">
+      <c r="G13">
         <v>14.7</v>
       </c>
-      <c r="F13">
+      <c r="H13">
         <v>71.66</v>
       </c>
-      <c r="G13">
+      <c r="I13">
         <v>281.39999999999998</v>
       </c>
-      <c r="H13">
+      <c r="J13">
         <v>282</v>
       </c>
-      <c r="I13">
+      <c r="K13">
         <v>283.7</v>
       </c>
-      <c r="J13">
+      <c r="L13">
         <v>275.2</v>
       </c>
-      <c r="K13">
+      <c r="M13">
         <v>72.61</v>
       </c>
-      <c r="L13">
+      <c r="N13">
         <v>78.61</v>
       </c>
-      <c r="M13">
+      <c r="O13">
         <v>259.89999999999998</v>
       </c>
-      <c r="N13">
+      <c r="P13">
         <v>96.46</v>
       </c>
-      <c r="O13">
+      <c r="Q13">
         <v>94.41</v>
       </c>
-      <c r="P13">
+      <c r="R13">
         <v>81.48</v>
       </c>
-      <c r="Q13">
+      <c r="S13">
         <v>93.57</v>
       </c>
-      <c r="R13">
+      <c r="T13">
         <v>98.94</v>
       </c>
-      <c r="S13">
+      <c r="U13">
         <v>76.739999999999995</v>
       </c>
-      <c r="T13">
+      <c r="V13">
         <v>77.5</v>
       </c>
-      <c r="U13">
+      <c r="W13">
         <v>100.6</v>
       </c>
-      <c r="V13">
+      <c r="X13">
         <v>54.63</v>
       </c>
-      <c r="W13">
+      <c r="Y13">
         <v>55.56</v>
       </c>
-      <c r="X13">
+      <c r="Z13">
         <v>187.3</v>
       </c>
-      <c r="Y13">
+      <c r="AA13">
         <v>181.8</v>
       </c>
-      <c r="Z13">
+      <c r="AB13">
         <v>98.98</v>
       </c>
-      <c r="AA13">
+      <c r="AC13">
         <v>76.86</v>
       </c>
-      <c r="AB13">
+      <c r="AD13">
         <v>44.29</v>
       </c>
-      <c r="AC13">
+      <c r="AE13">
         <v>78.88</v>
       </c>
-      <c r="AD13">
+      <c r="AF13">
         <v>87.78</v>
       </c>
-      <c r="AE13">
+      <c r="AG13">
         <v>229.3</v>
       </c>
-      <c r="AF13">
+      <c r="AH13">
         <v>595.79999999999995</v>
       </c>
-      <c r="AG13">
+      <c r="AI13">
         <v>3.407</v>
       </c>
-      <c r="AH13">
+      <c r="AJ13">
         <v>3910</v>
       </c>
-      <c r="AI13">
+      <c r="AK13">
+        <v>90.34</v>
+      </c>
+      <c r="AL13">
         <v>3.254</v>
       </c>
-      <c r="AJ13">
-        <v>1.095</v>
-      </c>
-      <c r="AK13">
+      <c r="AM13">
+        <v>1.157</v>
+      </c>
+      <c r="AN13">
+        <v>115.7</v>
+      </c>
+      <c r="AO13">
+        <v>0.73309999999999997</v>
+      </c>
+      <c r="AP13">
         <v>11.1</v>
       </c>
-      <c r="AL13">
+      <c r="AQ13">
         <v>67.010000000000005</v>
       </c>
-      <c r="AM13">
+      <c r="AR13">
         <v>4.2750000000000004</v>
       </c>
-      <c r="AN13">
+      <c r="AS13">
         <v>54.4</v>
       </c>
-      <c r="AO13">
+      <c r="AT13">
         <v>573.70000000000005</v>
       </c>
-      <c r="AP13">
+      <c r="AU13">
         <v>628.1</v>
       </c>
-      <c r="AQ13">
+      <c r="AV13">
         <v>9.4810000000000005E-2</v>
       </c>
-      <c r="AR13">
+      <c r="AW13">
         <v>1.5509999999999999</v>
       </c>
-      <c r="AS13">
+      <c r="AX13">
         <v>4085</v>
       </c>
-      <c r="AT13">
+      <c r="AY13">
         <v>45206</v>
       </c>
-      <c r="AU13">
+      <c r="AZ13">
         <v>45344</v>
       </c>
-      <c r="AV13">
+      <c r="BA13">
         <v>3.927</v>
       </c>
-      <c r="AW13">
+      <c r="BB13">
         <v>19.899999999999999</v>
       </c>
-      <c r="AX13">
+      <c r="BC13">
         <v>40.72</v>
       </c>
-      <c r="AY13">
+      <c r="BD13">
         <v>59.86</v>
       </c>
     </row>
-    <row r="14" spans="1:51" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:56" x14ac:dyDescent="0.35">
       <c r="A14">
+        <v>30.35</v>
+      </c>
+      <c r="B14">
+        <v>120.3</v>
+      </c>
+      <c r="C14">
         <v>12.69</v>
       </c>
-      <c r="B14">
+      <c r="D14">
         <v>8.56</v>
       </c>
-      <c r="C14">
+      <c r="E14">
         <v>17.600000000000001</v>
       </c>
-      <c r="D14">
+      <c r="F14">
         <v>9.5039999999999996</v>
       </c>
-      <c r="E14">
+      <c r="G14">
         <v>14.7</v>
       </c>
-      <c r="F14">
+      <c r="H14">
         <v>64.66</v>
       </c>
-      <c r="G14">
+      <c r="I14">
         <v>281.39999999999998</v>
       </c>
-      <c r="H14">
+      <c r="J14">
         <v>282.10000000000002</v>
       </c>
-      <c r="I14">
+      <c r="K14">
         <v>283.89999999999998</v>
       </c>
-      <c r="J14">
+      <c r="L14">
         <v>276.89999999999998</v>
       </c>
-      <c r="K14">
+      <c r="M14">
         <v>65.41</v>
       </c>
-      <c r="L14">
+      <c r="N14">
         <v>72.010000000000005</v>
       </c>
-      <c r="M14">
+      <c r="O14">
         <v>261.3</v>
       </c>
-      <c r="N14">
+      <c r="P14">
         <v>88.01</v>
       </c>
-      <c r="O14">
+      <c r="Q14">
         <v>95.9</v>
       </c>
-      <c r="P14">
+      <c r="R14">
         <v>81.73</v>
       </c>
-      <c r="Q14">
+      <c r="S14">
         <v>95.19</v>
       </c>
-      <c r="R14">
+      <c r="T14">
         <v>99.55</v>
       </c>
-      <c r="S14">
+      <c r="U14">
         <v>73.81</v>
       </c>
-      <c r="T14">
+      <c r="V14">
         <v>74.819999999999993</v>
       </c>
-      <c r="U14">
+      <c r="W14">
         <v>101.3</v>
       </c>
-      <c r="V14">
+      <c r="X14">
         <v>49.59</v>
       </c>
-      <c r="W14">
+      <c r="Y14">
         <v>50.93</v>
       </c>
-      <c r="X14">
+      <c r="Z14">
         <v>192.8</v>
       </c>
-      <c r="Y14">
+      <c r="AA14">
         <v>186.5</v>
       </c>
-      <c r="Z14">
+      <c r="AB14">
         <v>99.6</v>
       </c>
-      <c r="AA14">
+      <c r="AC14">
         <v>74.14</v>
       </c>
-      <c r="AB14">
+      <c r="AD14">
         <v>38.869999999999997</v>
       </c>
-      <c r="AC14">
+      <c r="AE14">
         <v>78.95</v>
       </c>
-      <c r="AD14">
+      <c r="AF14">
         <v>89.79</v>
       </c>
-      <c r="AE14">
+      <c r="AG14">
         <v>229.9</v>
       </c>
-      <c r="AF14">
+      <c r="AH14">
         <v>592.4</v>
       </c>
-      <c r="AG14">
+      <c r="AI14">
         <v>3.7109999999999999</v>
       </c>
-      <c r="AH14">
+      <c r="AJ14">
         <v>3851</v>
       </c>
-      <c r="AI14">
+      <c r="AK14">
+        <v>89.52</v>
+      </c>
+      <c r="AL14">
         <v>2.9729999999999999</v>
       </c>
-      <c r="AJ14">
-        <v>1.1100000000000001</v>
-      </c>
-      <c r="AK14">
+      <c r="AM14">
+        <v>1.077</v>
+      </c>
+      <c r="AN14">
+        <v>107.7</v>
+      </c>
+      <c r="AO14">
+        <v>0.72870000000000001</v>
+      </c>
+      <c r="AP14">
         <v>10.14</v>
       </c>
-      <c r="AL14">
+      <c r="AQ14">
         <v>66.55</v>
       </c>
-      <c r="AM14">
+      <c r="AR14">
         <v>4.3140000000000001</v>
       </c>
-      <c r="AN14">
+      <c r="AS14">
         <v>56.62</v>
       </c>
-      <c r="AO14">
+      <c r="AT14">
         <v>513.6</v>
       </c>
-      <c r="AP14">
+      <c r="AU14">
         <v>570.20000000000005</v>
       </c>
-      <c r="AQ14">
+      <c r="AV14">
         <v>0.11020000000000001</v>
       </c>
-      <c r="AR14">
+      <c r="AW14">
         <v>1.5880000000000001</v>
       </c>
-      <c r="AS14">
+      <c r="AX14">
         <v>4024</v>
       </c>
-      <c r="AT14">
+      <c r="AY14">
         <v>40591</v>
       </c>
-      <c r="AU14">
+      <c r="AZ14">
         <v>40824</v>
       </c>
-      <c r="AV14">
+      <c r="BA14">
         <v>4.3520000000000003</v>
       </c>
-      <c r="AW14">
+      <c r="BB14">
         <v>20.58</v>
       </c>
-      <c r="AX14">
+      <c r="BC14">
         <v>45.95</v>
       </c>
-      <c r="AY14">
+      <c r="BD14">
         <v>55.31</v>
       </c>
     </row>
-    <row r="15" spans="1:51" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:56" x14ac:dyDescent="0.35">
       <c r="A15">
+        <v>25.48</v>
+      </c>
+      <c r="B15">
+        <v>120.6</v>
+      </c>
+      <c r="C15">
         <v>13.04</v>
       </c>
-      <c r="B15">
+      <c r="D15">
         <v>7.7519999999999998</v>
       </c>
-      <c r="C15">
+      <c r="E15">
         <v>17.66</v>
       </c>
-      <c r="D15">
+      <c r="F15">
         <v>9.0359999999999996</v>
       </c>
-      <c r="E15">
+      <c r="G15">
         <v>14.7</v>
       </c>
-      <c r="F15">
+      <c r="H15">
         <v>58.71</v>
       </c>
-      <c r="G15">
+      <c r="I15">
         <v>282.7</v>
       </c>
-      <c r="H15">
+      <c r="J15">
         <v>283.39999999999998</v>
       </c>
-      <c r="I15">
+      <c r="K15">
         <v>285.39999999999998</v>
       </c>
-      <c r="J15">
+      <c r="L15">
         <v>279</v>
       </c>
-      <c r="K15">
+      <c r="M15">
         <v>59.46</v>
       </c>
-      <c r="L15">
+      <c r="N15">
         <v>65.87</v>
       </c>
-      <c r="M15">
+      <c r="O15">
         <v>263.10000000000002</v>
       </c>
-      <c r="N15">
+      <c r="P15">
         <v>86.53</v>
       </c>
-      <c r="O15">
+      <c r="Q15">
         <v>97.34</v>
       </c>
-      <c r="P15">
+      <c r="R15">
         <v>80.08</v>
       </c>
-      <c r="Q15">
+      <c r="S15">
         <v>95.52</v>
       </c>
-      <c r="R15">
+      <c r="T15">
         <v>100.4</v>
       </c>
-      <c r="S15">
+      <c r="U15">
         <v>62.34</v>
       </c>
-      <c r="T15">
+      <c r="V15">
         <v>63.24</v>
       </c>
-      <c r="U15">
+      <c r="W15">
         <v>102.1</v>
       </c>
-      <c r="V15">
+      <c r="X15">
         <v>43.5</v>
       </c>
-      <c r="W15">
+      <c r="Y15">
         <v>45.29</v>
       </c>
-      <c r="X15">
+      <c r="Z15">
         <v>197.8</v>
       </c>
-      <c r="Y15">
+      <c r="AA15">
         <v>190.8</v>
       </c>
-      <c r="Z15">
+      <c r="AB15">
         <v>100.5</v>
       </c>
-      <c r="AA15">
+      <c r="AC15">
         <v>63.01</v>
       </c>
-      <c r="AB15">
+      <c r="AD15">
         <v>31.78</v>
       </c>
-      <c r="AC15">
+      <c r="AE15">
         <v>76.17</v>
       </c>
-      <c r="AD15">
+      <c r="AF15">
         <v>91.5</v>
       </c>
-      <c r="AE15">
+      <c r="AG15">
         <v>230.6</v>
       </c>
-      <c r="AF15">
+      <c r="AH15">
         <v>587.70000000000005</v>
       </c>
-      <c r="AG15">
+      <c r="AI15">
         <v>4.03</v>
       </c>
-      <c r="AH15">
+      <c r="AJ15">
         <v>3909</v>
       </c>
-      <c r="AI15">
+      <c r="AK15">
+        <v>88.81</v>
+      </c>
+      <c r="AL15">
         <v>2.7610000000000001</v>
       </c>
-      <c r="AJ15">
-        <v>1.1659999999999999</v>
-      </c>
-      <c r="AK15">
+      <c r="AM15">
+        <v>1.0409999999999999</v>
+      </c>
+      <c r="AN15">
+        <v>104.1</v>
+      </c>
+      <c r="AO15">
+        <v>0.72160000000000002</v>
+      </c>
+      <c r="AP15">
         <v>9.4220000000000006</v>
       </c>
-      <c r="AL15">
+      <c r="AQ15">
         <v>65.59</v>
       </c>
-      <c r="AM15">
+      <c r="AR15">
         <v>4.22</v>
       </c>
-      <c r="AN15">
+      <c r="AS15">
         <v>77.02</v>
       </c>
-      <c r="AO15">
+      <c r="AT15">
         <v>465.1</v>
       </c>
-      <c r="AP15">
+      <c r="AU15">
         <v>542.20000000000005</v>
       </c>
-      <c r="AQ15">
+      <c r="AV15">
         <v>0.1656</v>
       </c>
-      <c r="AR15">
+      <c r="AW15">
         <v>1.724</v>
       </c>
-      <c r="AS15">
+      <c r="AX15">
         <v>4081</v>
       </c>
-      <c r="AT15">
+      <c r="AY15">
         <v>38031</v>
       </c>
-      <c r="AU15">
+      <c r="AZ15">
         <v>38452</v>
       </c>
-      <c r="AV15">
+      <c r="BA15">
         <v>4.8150000000000004</v>
       </c>
-      <c r="AW15">
+      <c r="BB15">
         <v>19.809999999999999</v>
       </c>
-      <c r="AX15">
+      <c r="BC15">
         <v>47.64</v>
       </c>
-      <c r="AY15">
+      <c r="BD15">
         <v>54.49</v>
       </c>
     </row>
-    <row r="16" spans="1:51" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:56" x14ac:dyDescent="0.35">
       <c r="A16">
+        <v>20.05</v>
+      </c>
+      <c r="B16">
+        <v>119.9</v>
+      </c>
+      <c r="C16">
         <v>12.58</v>
       </c>
-      <c r="B16">
+      <c r="D16">
         <v>6.9290000000000003</v>
       </c>
-      <c r="C16">
+      <c r="E16">
         <v>17.61</v>
       </c>
-      <c r="D16">
+      <c r="F16">
         <v>7.8949999999999996</v>
       </c>
-      <c r="E16">
+      <c r="G16">
         <v>14.7</v>
       </c>
-      <c r="F16">
+      <c r="H16">
         <v>52.58</v>
       </c>
-      <c r="G16">
+      <c r="I16">
         <v>280.10000000000002</v>
       </c>
-      <c r="H16">
+      <c r="J16">
         <v>281.10000000000002</v>
       </c>
-      <c r="I16">
+      <c r="K16">
         <v>283.10000000000002</v>
       </c>
-      <c r="J16">
+      <c r="L16">
         <v>278.3</v>
       </c>
-      <c r="K16">
+      <c r="M16">
         <v>53.2</v>
       </c>
-      <c r="L16">
+      <c r="N16">
         <v>59.12</v>
       </c>
-      <c r="M16">
+      <c r="O16">
         <v>262.10000000000002</v>
       </c>
-      <c r="N16">
+      <c r="P16">
         <v>72.83</v>
       </c>
-      <c r="O16">
+      <c r="Q16">
         <v>99.22</v>
       </c>
-      <c r="P16">
+      <c r="R16">
         <v>82.72</v>
       </c>
-      <c r="Q16">
+      <c r="S16">
         <v>94.76</v>
       </c>
-      <c r="R16">
+      <c r="T16">
         <v>100.9</v>
       </c>
-      <c r="S16">
+      <c r="U16">
         <v>65.510000000000005</v>
       </c>
-      <c r="T16">
+      <c r="V16">
         <v>69.510000000000005</v>
       </c>
-      <c r="U16">
+      <c r="W16">
         <v>102.6</v>
       </c>
-      <c r="V16">
+      <c r="X16">
         <v>36.950000000000003</v>
       </c>
-      <c r="W16">
+      <c r="Y16">
         <v>39.25</v>
       </c>
-      <c r="X16">
+      <c r="Z16">
         <v>202.1</v>
       </c>
-      <c r="Y16">
+      <c r="AA16">
         <v>193.9</v>
       </c>
-      <c r="Z16">
+      <c r="AB16">
         <v>100.9</v>
       </c>
-      <c r="AA16">
+      <c r="AC16">
         <v>68.98</v>
       </c>
-      <c r="AB16">
+      <c r="AD16">
         <v>29.04</v>
       </c>
-      <c r="AC16">
+      <c r="AE16">
         <v>78.63</v>
       </c>
-      <c r="AD16">
+      <c r="AF16">
         <v>94.06</v>
       </c>
-      <c r="AE16">
+      <c r="AG16">
         <v>230.6</v>
       </c>
-      <c r="AF16">
+      <c r="AH16">
         <v>593.1</v>
       </c>
-      <c r="AG16">
+      <c r="AI16">
         <v>4.3719999999999999</v>
       </c>
-      <c r="AH16">
+      <c r="AJ16">
         <v>3707</v>
       </c>
-      <c r="AI16">
+      <c r="AK16">
+        <v>88.12</v>
+      </c>
+      <c r="AL16">
         <v>2.5310000000000001</v>
       </c>
-      <c r="AJ16">
-        <v>1.139</v>
-      </c>
-      <c r="AK16">
+      <c r="AM16">
+        <v>0.93810000000000004</v>
+      </c>
+      <c r="AN16">
+        <v>93.81</v>
+      </c>
+      <c r="AO16">
+        <v>0.71599999999999997</v>
+      </c>
+      <c r="AP16">
         <v>8.6349999999999998</v>
       </c>
-      <c r="AL16">
+      <c r="AQ16">
         <v>65.099999999999994</v>
       </c>
-      <c r="AM16">
+      <c r="AR16">
         <v>4.4790000000000001</v>
       </c>
-      <c r="AN16">
+      <c r="AS16">
         <v>57.94</v>
       </c>
-      <c r="AO16">
+      <c r="AT16">
         <v>415.7</v>
       </c>
-      <c r="AP16">
+      <c r="AU16">
         <v>473.7</v>
       </c>
-      <c r="AQ16">
+      <c r="AV16">
         <v>0.1394</v>
       </c>
-      <c r="AR16">
+      <c r="AW16">
         <v>1.665</v>
       </c>
-      <c r="AS16">
+      <c r="AX16">
         <v>3881</v>
       </c>
-      <c r="AT16">
+      <c r="AY16">
         <v>32492</v>
       </c>
-      <c r="AU16">
+      <c r="AZ16">
         <v>33510</v>
       </c>
-      <c r="AV16">
+      <c r="BA16">
         <v>5.327</v>
       </c>
-      <c r="AW16">
+      <c r="BB16">
         <v>19.2</v>
       </c>
-      <c r="AX16">
+      <c r="BC16">
         <v>56.2</v>
       </c>
-      <c r="AY16">
+      <c r="BD16">
         <v>46.38</v>
       </c>
     </row>
-    <row r="17" spans="1:51" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:56" x14ac:dyDescent="0.35">
       <c r="A17">
+        <v>15.1</v>
+      </c>
+      <c r="B17">
+        <v>120.2</v>
+      </c>
+      <c r="C17">
         <v>12.85</v>
       </c>
-      <c r="B17">
+      <c r="D17">
         <v>6.1769999999999996</v>
       </c>
-      <c r="C17">
+      <c r="E17">
         <v>17.68</v>
       </c>
-      <c r="D17">
+      <c r="F17">
         <v>7.4690000000000003</v>
       </c>
-      <c r="E17">
+      <c r="G17">
         <v>14.7</v>
       </c>
-      <c r="F17">
+      <c r="H17">
         <v>47.43</v>
       </c>
-      <c r="G17">
+      <c r="I17">
         <v>281</v>
       </c>
-      <c r="H17">
+      <c r="J17">
         <v>281.89999999999998</v>
       </c>
-      <c r="I17">
+      <c r="K17">
         <v>284.10000000000002</v>
       </c>
-      <c r="J17">
+      <c r="L17">
         <v>279.60000000000002</v>
       </c>
-      <c r="K17">
+      <c r="M17">
         <v>47.96</v>
       </c>
-      <c r="L17">
+      <c r="N17">
         <v>55.37</v>
       </c>
-      <c r="M17">
+      <c r="O17">
         <v>263.39999999999998</v>
       </c>
-      <c r="N17">
+      <c r="P17">
         <v>72.48</v>
       </c>
-      <c r="O17">
+      <c r="Q17">
         <v>99.41</v>
       </c>
-      <c r="P17">
+      <c r="R17">
         <v>80.78</v>
       </c>
-      <c r="Q17">
+      <c r="S17">
         <v>95.58</v>
       </c>
-      <c r="R17">
+      <c r="T17">
         <v>101.1</v>
       </c>
-      <c r="S17">
+      <c r="U17">
         <v>52.38</v>
       </c>
-      <c r="T17">
+      <c r="V17">
         <v>53.61</v>
       </c>
-      <c r="U17">
+      <c r="W17">
         <v>102.7</v>
       </c>
-      <c r="V17">
+      <c r="X17">
         <v>32.67</v>
       </c>
-      <c r="W17">
+      <c r="Y17">
         <v>35.56</v>
       </c>
-      <c r="X17">
+      <c r="Z17">
         <v>210.3</v>
       </c>
-      <c r="Y17">
+      <c r="AA17">
         <v>200.9</v>
       </c>
-      <c r="Z17">
+      <c r="AB17">
         <v>101.3</v>
       </c>
-      <c r="AA17">
+      <c r="AC17">
         <v>53.69</v>
       </c>
-      <c r="AB17">
+      <c r="AD17">
         <v>20.84</v>
       </c>
-      <c r="AC17">
+      <c r="AE17">
         <v>74.8</v>
       </c>
-      <c r="AD17">
+      <c r="AF17">
         <v>94.5</v>
       </c>
-      <c r="AE17">
+      <c r="AG17">
         <v>230.4</v>
       </c>
-      <c r="AF17">
+      <c r="AH17">
         <v>657.2</v>
       </c>
-      <c r="AG17">
+      <c r="AI17">
         <v>4.7569999999999997</v>
       </c>
-      <c r="AH17">
+      <c r="AJ17">
         <v>3753</v>
       </c>
-      <c r="AI17">
+      <c r="AK17">
+        <v>87.02</v>
+      </c>
+      <c r="AL17">
         <v>2.331</v>
       </c>
-      <c r="AJ17">
-        <v>1.2090000000000001</v>
-      </c>
-      <c r="AK17">
+      <c r="AM17">
+        <v>0.91490000000000005</v>
+      </c>
+      <c r="AN17">
+        <v>91.49</v>
+      </c>
+      <c r="AO17">
+        <v>0.70799999999999996</v>
+      </c>
+      <c r="AP17">
         <v>7.9539999999999997</v>
       </c>
-      <c r="AL17">
+      <c r="AQ17">
         <v>63.49</v>
       </c>
-      <c r="AM17">
+      <c r="AR17">
         <v>4.8810000000000002</v>
       </c>
-      <c r="AN17">
+      <c r="AS17">
         <v>77.489999999999995</v>
       </c>
-      <c r="AO17">
+      <c r="AT17">
         <v>370.6</v>
       </c>
-      <c r="AP17">
+      <c r="AU17">
         <v>448.1</v>
       </c>
-      <c r="AQ17">
+      <c r="AV17">
         <v>0.20910000000000001</v>
       </c>
-      <c r="AR17">
+      <c r="AW17">
         <v>1.8380000000000001</v>
       </c>
-      <c r="AS17">
+      <c r="AX17">
         <v>3946</v>
       </c>
-      <c r="AT17">
+      <c r="AY17">
         <v>30768</v>
       </c>
-      <c r="AU17">
+      <c r="AZ17">
         <v>31387</v>
       </c>
-      <c r="AV17">
+      <c r="BA17">
         <v>5.9240000000000004</v>
       </c>
-      <c r="AW17">
+      <c r="BB17">
         <v>20.46</v>
       </c>
-      <c r="AX17">
+      <c r="BC17">
         <v>56.53</v>
       </c>
-      <c r="AY17">
+      <c r="BD17">
         <v>46.15</v>
       </c>
     </row>
-    <row r="18" spans="1:51" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:56" x14ac:dyDescent="0.35">
       <c r="A18">
+        <v>45.16</v>
+      </c>
+      <c r="B18">
+        <v>140.1</v>
+      </c>
+      <c r="C18">
         <v>15.34</v>
       </c>
-      <c r="B18">
+      <c r="D18">
         <v>11.24</v>
       </c>
-      <c r="C18">
+      <c r="E18">
         <v>17.66</v>
       </c>
-      <c r="D18">
+      <c r="F18">
         <v>12.11</v>
       </c>
-      <c r="E18">
+      <c r="G18">
         <v>14.7</v>
       </c>
-      <c r="F18">
+      <c r="H18">
         <v>85.6</v>
       </c>
-      <c r="G18">
+      <c r="I18">
         <v>366.9</v>
       </c>
-      <c r="H18">
+      <c r="J18">
         <v>367.3</v>
       </c>
-      <c r="I18">
+      <c r="K18">
         <v>368.9</v>
       </c>
-      <c r="J18">
+      <c r="L18">
         <v>357.6</v>
       </c>
-      <c r="K18">
+      <c r="M18">
         <v>86.83</v>
       </c>
-      <c r="L18">
+      <c r="N18">
         <v>91.56</v>
       </c>
-      <c r="M18">
+      <c r="O18">
         <v>343</v>
       </c>
-      <c r="N18">
+      <c r="P18">
         <v>114.8</v>
       </c>
-      <c r="O18">
+      <c r="Q18">
         <v>115.2</v>
       </c>
-      <c r="P18">
+      <c r="R18">
         <v>87.89</v>
       </c>
-      <c r="Q18">
+      <c r="S18">
         <v>95.48</v>
       </c>
-      <c r="R18">
+      <c r="T18">
         <v>119.6</v>
       </c>
-      <c r="S18">
+      <c r="U18">
         <v>103.6</v>
       </c>
-      <c r="T18">
+      <c r="V18">
         <v>104.1</v>
       </c>
-      <c r="U18">
+      <c r="W18">
         <v>120.6</v>
       </c>
-      <c r="V18">
+      <c r="X18">
         <v>65.05</v>
       </c>
-      <c r="W18">
+      <c r="Y18">
         <v>65.680000000000007</v>
       </c>
-      <c r="X18">
+      <c r="Z18">
         <v>209.7</v>
       </c>
-      <c r="Y18">
+      <c r="AA18">
         <v>204.1</v>
       </c>
-      <c r="Z18">
+      <c r="AB18">
         <v>119.8</v>
       </c>
-      <c r="AA18">
+      <c r="AC18">
         <v>103.4</v>
       </c>
-      <c r="AB18">
+      <c r="AD18">
         <v>59.78</v>
       </c>
-      <c r="AC18">
+      <c r="AE18">
         <v>45.19</v>
       </c>
-      <c r="AD18">
+      <c r="AF18">
         <v>108.1</v>
       </c>
-      <c r="AE18">
+      <c r="AG18">
         <v>229.9</v>
       </c>
-      <c r="AF18">
+      <c r="AH18">
         <v>853.9</v>
       </c>
-      <c r="AG18">
+      <c r="AI18">
         <v>3.7429999999999999</v>
       </c>
-      <c r="AH18">
+      <c r="AJ18">
         <v>4842</v>
       </c>
-      <c r="AI18">
+      <c r="AK18">
+        <v>89.45</v>
+      </c>
+      <c r="AL18">
         <v>2.7330000000000001</v>
       </c>
-      <c r="AJ18">
-        <v>1.0780000000000001</v>
-      </c>
-      <c r="AK18">
+      <c r="AM18">
+        <v>1.036</v>
+      </c>
+      <c r="AN18">
+        <v>103.6</v>
+      </c>
+      <c r="AO18">
+        <v>0.73509999999999998</v>
+      </c>
+      <c r="AP18">
         <v>9.3239999999999998</v>
       </c>
-      <c r="AL18">
+      <c r="AQ18">
         <v>66.760000000000005</v>
       </c>
-      <c r="AM18">
+      <c r="AR18">
         <v>4.9139999999999997</v>
       </c>
-      <c r="AN18">
+      <c r="AS18">
         <v>52.32</v>
       </c>
-      <c r="AO18">
+      <c r="AT18">
         <v>674.4</v>
       </c>
-      <c r="AP18">
+      <c r="AU18">
         <v>726.7</v>
       </c>
-      <c r="AQ18">
+      <c r="AV18">
         <v>7.757E-2</v>
       </c>
-      <c r="AR18">
+      <c r="AW18">
         <v>1.5129999999999999</v>
       </c>
-      <c r="AS18">
+      <c r="AX18">
         <v>5093</v>
       </c>
-      <c r="AT18">
+      <c r="AY18">
         <v>47537</v>
       </c>
-      <c r="AU18">
+      <c r="AZ18">
         <v>47484</v>
       </c>
-      <c r="AV18">
+      <c r="BA18">
         <v>4.2859999999999996</v>
       </c>
-      <c r="AW18">
+      <c r="BB18">
         <v>20.53</v>
       </c>
-      <c r="AX18">
+      <c r="BC18">
         <v>51.76</v>
       </c>
-      <c r="AY18">
+      <c r="BD18">
         <v>68.89</v>
       </c>
     </row>
-    <row r="19" spans="1:51" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:56" x14ac:dyDescent="0.35">
       <c r="A19">
+        <v>40.18</v>
+      </c>
+      <c r="B19">
+        <v>140.1</v>
+      </c>
+      <c r="C19">
         <v>15.35</v>
       </c>
-      <c r="B19">
+      <c r="D19">
         <v>10.210000000000001</v>
       </c>
-      <c r="C19">
+      <c r="E19">
         <v>17.670000000000002</v>
       </c>
-      <c r="D19">
+      <c r="F19">
         <v>11.35</v>
       </c>
-      <c r="E19">
+      <c r="G19">
         <v>14.7</v>
       </c>
-      <c r="F19">
+      <c r="H19">
         <v>78.05</v>
       </c>
-      <c r="G19">
+      <c r="I19">
         <v>367</v>
       </c>
-      <c r="H19">
+      <c r="J19">
         <v>367.6</v>
       </c>
-      <c r="I19">
+      <c r="K19">
         <v>369.2</v>
       </c>
-      <c r="J19">
+      <c r="L19">
         <v>359.5</v>
       </c>
-      <c r="K19">
+      <c r="M19">
         <v>79.12</v>
       </c>
-      <c r="L19">
+      <c r="N19">
         <v>83.45</v>
       </c>
-      <c r="M19">
+      <c r="O19">
         <v>344.3</v>
       </c>
-      <c r="N19">
+      <c r="P19">
         <v>109.6</v>
       </c>
-      <c r="O19">
+      <c r="Q19">
         <v>116.3</v>
       </c>
-      <c r="P19">
+      <c r="R19">
         <v>88.82</v>
       </c>
-      <c r="Q19">
+      <c r="S19">
         <v>95.31</v>
       </c>
-      <c r="R19">
+      <c r="T19">
         <v>119.9</v>
       </c>
-      <c r="S19">
+      <c r="U19">
         <v>97.42</v>
       </c>
-      <c r="T19">
+      <c r="V19">
         <v>98.05</v>
       </c>
-      <c r="U19">
+      <c r="W19">
         <v>120.8</v>
       </c>
-      <c r="V19">
+      <c r="X19">
         <v>58.98</v>
       </c>
-      <c r="W19">
+      <c r="Y19">
         <v>59.89</v>
       </c>
-      <c r="X19">
+      <c r="Z19">
         <v>213.8</v>
       </c>
-      <c r="Y19">
+      <c r="AA19">
         <v>207.6</v>
       </c>
-      <c r="Z19">
+      <c r="AB19">
         <v>120.2</v>
       </c>
-      <c r="AA19">
+      <c r="AC19">
         <v>97.35</v>
       </c>
-      <c r="AB19">
+      <c r="AD19">
         <v>53.68</v>
       </c>
-      <c r="AC19">
+      <c r="AE19">
         <v>58.4</v>
       </c>
-      <c r="AD19">
+      <c r="AF19">
         <v>109.5</v>
       </c>
-      <c r="AE19">
+      <c r="AG19">
         <v>229.8</v>
       </c>
-      <c r="AF19">
+      <c r="AH19">
         <v>862</v>
       </c>
-      <c r="AG19">
+      <c r="AI19">
         <v>4.0369999999999999</v>
       </c>
-      <c r="AH19">
+      <c r="AJ19">
         <v>4846</v>
       </c>
-      <c r="AI19">
+      <c r="AK19">
+        <v>88.73</v>
+      </c>
+      <c r="AL19">
         <v>2.5329999999999999</v>
       </c>
-      <c r="AJ19">
-        <v>1.111</v>
-      </c>
-      <c r="AK19">
+      <c r="AM19">
+        <v>0.9909</v>
+      </c>
+      <c r="AN19">
+        <v>99.09</v>
+      </c>
+      <c r="AO19">
+        <v>0.72970000000000002</v>
+      </c>
+      <c r="AP19">
         <v>8.6449999999999996</v>
       </c>
-      <c r="AL19">
+      <c r="AQ19">
         <v>65.97</v>
       </c>
-      <c r="AM19">
+      <c r="AR19">
         <v>4.9550000000000001</v>
       </c>
-      <c r="AN19">
+      <c r="AS19">
         <v>68.099999999999994</v>
       </c>
-      <c r="AO19">
+      <c r="AT19">
         <v>612.70000000000005</v>
       </c>
-      <c r="AP19">
+      <c r="AU19">
         <v>680.8</v>
       </c>
-      <c r="AQ19">
+      <c r="AV19">
         <v>0.1111</v>
       </c>
-      <c r="AR19">
+      <c r="AW19">
         <v>1.593</v>
       </c>
-      <c r="AS19">
+      <c r="AX19">
         <v>5099</v>
       </c>
-      <c r="AT19">
+      <c r="AY19">
         <v>44029</v>
       </c>
-      <c r="AU19">
+      <c r="AZ19">
         <v>44079</v>
       </c>
-      <c r="AV19">
+      <c r="BA19">
         <v>4.702</v>
       </c>
-      <c r="AW19">
+      <c r="BB19">
         <v>19.72</v>
       </c>
-      <c r="AX19">
+      <c r="BC19">
         <v>54.41</v>
       </c>
-      <c r="AY19">
+      <c r="BD19">
         <v>66.44</v>
       </c>
     </row>
-    <row r="20" spans="1:51" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:56" x14ac:dyDescent="0.35">
       <c r="A20">
+        <v>40.590000000000003</v>
+      </c>
+      <c r="B20">
+        <v>110.1</v>
+      </c>
+      <c r="C20">
         <v>12.08</v>
       </c>
-      <c r="B20">
+      <c r="D20">
         <v>10.65</v>
       </c>
-      <c r="C20">
+      <c r="E20">
         <v>17.66</v>
       </c>
-      <c r="D20">
+      <c r="F20">
         <v>11.54</v>
       </c>
-      <c r="E20">
+      <c r="G20">
         <v>14.85</v>
       </c>
-      <c r="F20">
+      <c r="H20">
         <v>78.66</v>
       </c>
-      <c r="G20">
+      <c r="I20">
         <v>244.1</v>
       </c>
-      <c r="H20">
+      <c r="J20">
         <v>244.2</v>
       </c>
-      <c r="I20">
+      <c r="K20">
         <v>245.7</v>
       </c>
-      <c r="J20">
+      <c r="L20">
         <v>235.6</v>
       </c>
-      <c r="K20">
+      <c r="M20">
         <v>79.819999999999993</v>
       </c>
-      <c r="L20">
+      <c r="N20">
         <v>87.14</v>
       </c>
-      <c r="M20">
+      <c r="O20">
         <v>220.5</v>
       </c>
-      <c r="N20">
+      <c r="P20">
         <v>104.9</v>
       </c>
-      <c r="O20">
+      <c r="Q20">
         <v>80.42</v>
       </c>
-      <c r="P20">
+      <c r="R20">
         <v>79.45</v>
       </c>
-      <c r="Q20">
+      <c r="S20">
         <v>95</v>
       </c>
-      <c r="R20">
+      <c r="T20">
         <v>87.65</v>
       </c>
-      <c r="S20">
+      <c r="U20">
         <v>66.849999999999994</v>
       </c>
-      <c r="T20">
+      <c r="V20">
         <v>67.569999999999993</v>
       </c>
-      <c r="U20">
+      <c r="W20">
         <v>89.9</v>
       </c>
-      <c r="V20">
+      <c r="X20">
         <v>59.89</v>
       </c>
-      <c r="W20">
+      <c r="Y20">
         <v>60.42</v>
       </c>
-      <c r="X20">
+      <c r="Z20">
         <v>169.9</v>
       </c>
-      <c r="Y20">
+      <c r="AA20">
         <v>165.3</v>
       </c>
-      <c r="Z20">
+      <c r="AB20">
         <v>87.58</v>
       </c>
-      <c r="AA20">
+      <c r="AC20">
         <v>67.11</v>
       </c>
-      <c r="AB20">
+      <c r="AD20">
         <v>45.56</v>
       </c>
-      <c r="AC20">
+      <c r="AE20">
         <v>67.14</v>
       </c>
-      <c r="AD20">
+      <c r="AF20">
         <v>73.06</v>
       </c>
-      <c r="AE20">
+      <c r="AG20">
         <v>229.7</v>
       </c>
-      <c r="AF20">
+      <c r="AH20">
         <v>528.6</v>
       </c>
-      <c r="AG20">
+      <c r="AI20">
         <v>2.7490000000000001</v>
       </c>
-      <c r="AH20">
+      <c r="AJ20">
         <v>3627</v>
       </c>
-      <c r="AI20">
+      <c r="AK20">
+        <v>91.87</v>
+      </c>
+      <c r="AL20">
         <v>4.1219999999999999</v>
       </c>
-      <c r="AJ20">
-        <v>1.0840000000000001</v>
-      </c>
-      <c r="AK20">
+      <c r="AM20">
+        <v>1.419</v>
+      </c>
+      <c r="AN20">
+        <v>141.9</v>
+      </c>
+      <c r="AO20">
+        <v>0.71830000000000005</v>
+      </c>
+      <c r="AP20">
         <v>14.07</v>
       </c>
-      <c r="AL20">
+      <c r="AQ20">
         <v>65.459999999999994</v>
       </c>
-      <c r="AM20">
+      <c r="AR20">
         <v>4.0960000000000001</v>
       </c>
-      <c r="AN20">
+      <c r="AS20">
         <v>53.49</v>
       </c>
-      <c r="AO20">
+      <c r="AT20">
         <v>639</v>
       </c>
-      <c r="AP20">
+      <c r="AU20">
         <v>692.5</v>
       </c>
-      <c r="AQ20">
+      <c r="AV20">
         <v>8.3720000000000003E-2</v>
       </c>
-      <c r="AR20">
+      <c r="AW20">
         <v>1.522</v>
       </c>
-      <c r="AS20">
+      <c r="AX20">
         <v>3782</v>
       </c>
-      <c r="AT20">
+      <c r="AY20">
         <v>53008</v>
       </c>
-      <c r="AU20">
+      <c r="AZ20">
         <v>53202</v>
       </c>
-      <c r="AV20">
+      <c r="BA20">
         <v>3.1030000000000002</v>
       </c>
-      <c r="AW20">
+      <c r="BB20">
         <v>19.84</v>
       </c>
-      <c r="AX20">
+      <c r="BC20">
         <v>25.7</v>
       </c>
-      <c r="AY20">
+      <c r="BD20">
         <v>64.2</v>
       </c>
     </row>
-    <row r="21" spans="1:51" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:56" x14ac:dyDescent="0.35">
       <c r="A21">
+        <v>35.25</v>
+      </c>
+      <c r="B21">
+        <v>109.9</v>
+      </c>
+      <c r="C21">
         <v>12</v>
       </c>
-      <c r="B21">
+      <c r="D21">
         <v>9.5830000000000002</v>
       </c>
-      <c r="C21">
+      <c r="E21">
         <v>17.649999999999999</v>
       </c>
-      <c r="D21">
+      <c r="F21">
         <v>10.55</v>
       </c>
-      <c r="E21">
+      <c r="G21">
         <v>14.85</v>
       </c>
-      <c r="F21">
+      <c r="H21">
         <v>71.09</v>
       </c>
-      <c r="G21">
+      <c r="I21">
         <v>243.4</v>
       </c>
-      <c r="H21">
+      <c r="J21">
         <v>243.7</v>
       </c>
-      <c r="I21">
+      <c r="K21">
         <v>245.5</v>
       </c>
-      <c r="J21">
+      <c r="L21">
         <v>237</v>
       </c>
-      <c r="K21">
+      <c r="M21">
         <v>72.099999999999994</v>
       </c>
-      <c r="L21">
+      <c r="N21">
         <v>79.61</v>
       </c>
-      <c r="M21">
+      <c r="O21">
         <v>221.5</v>
       </c>
-      <c r="N21">
+      <c r="P21">
         <v>96.22</v>
       </c>
-      <c r="O21">
+      <c r="Q21">
         <v>81.64</v>
       </c>
-      <c r="P21">
+      <c r="R21">
         <v>78.930000000000007</v>
       </c>
-      <c r="Q21">
+      <c r="S21">
         <v>94.51</v>
       </c>
-      <c r="R21">
+      <c r="T21">
         <v>87.76</v>
       </c>
-      <c r="S21">
+      <c r="U21">
         <v>62.89</v>
       </c>
-      <c r="T21">
+      <c r="V21">
         <v>63.69</v>
       </c>
-      <c r="U21">
+      <c r="W21">
         <v>89.87</v>
       </c>
-      <c r="V21">
+      <c r="X21">
         <v>54.66</v>
       </c>
-      <c r="W21">
+      <c r="Y21">
         <v>55.48</v>
       </c>
-      <c r="X21">
+      <c r="Z21">
         <v>173.2</v>
       </c>
-      <c r="Y21">
+      <c r="AA21">
         <v>168.1</v>
       </c>
-      <c r="Z21">
+      <c r="AB21">
         <v>87.64</v>
       </c>
-      <c r="AA21">
+      <c r="AC21">
         <v>63.11</v>
       </c>
-      <c r="AB21">
+      <c r="AD21">
         <v>39.94</v>
       </c>
-      <c r="AC21">
+      <c r="AE21">
         <v>67.22</v>
       </c>
-      <c r="AD21">
+      <c r="AF21">
         <v>74.86</v>
       </c>
-      <c r="AE21">
+      <c r="AG21">
         <v>229.6</v>
       </c>
-      <c r="AF21">
+      <c r="AH21">
         <v>503.7</v>
       </c>
-      <c r="AG21">
+      <c r="AI21">
         <v>2.9969999999999999</v>
       </c>
-      <c r="AH21">
+      <c r="AJ21">
         <v>3565</v>
       </c>
-      <c r="AI21">
+      <c r="AK21">
+        <v>91.33</v>
+      </c>
+      <c r="AL21">
         <v>3.8140000000000001</v>
       </c>
-      <c r="AJ21">
-        <v>1.101</v>
-      </c>
-      <c r="AK21">
+      <c r="AM21">
+        <v>1.323</v>
+      </c>
+      <c r="AN21">
+        <v>132.30000000000001</v>
+      </c>
+      <c r="AO21">
+        <v>0.7248</v>
+      </c>
+      <c r="AP21">
         <v>13.01</v>
       </c>
-      <c r="AL21">
+      <c r="AQ21">
         <v>66.25</v>
       </c>
-      <c r="AM21">
+      <c r="AR21">
         <v>3.9769999999999999</v>
       </c>
-      <c r="AN21">
+      <c r="AS21">
         <v>58.15</v>
       </c>
-      <c r="AO21">
+      <c r="AT21">
         <v>575</v>
       </c>
-      <c r="AP21">
+      <c r="AU21">
         <v>633.1</v>
       </c>
-      <c r="AQ21">
+      <c r="AV21">
         <v>0.1011</v>
       </c>
-      <c r="AR21">
+      <c r="AW21">
         <v>1.5620000000000001</v>
       </c>
-      <c r="AS21">
+      <c r="AX21">
         <v>3712</v>
       </c>
-      <c r="AT21">
+      <c r="AY21">
         <v>48081</v>
       </c>
-      <c r="AU21">
+      <c r="AZ21">
         <v>48312</v>
       </c>
-      <c r="AV21">
+      <c r="BA21">
         <v>3.4239999999999999</v>
       </c>
-      <c r="AW21">
+      <c r="BB21">
         <v>20.23</v>
       </c>
-      <c r="AX21">
+      <c r="BC21">
         <v>30.06</v>
       </c>
-      <c r="AY21">
+      <c r="BD21">
         <v>59.81</v>
       </c>
     </row>
-    <row r="22" spans="1:51" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:56" x14ac:dyDescent="0.35">
       <c r="A22">
+        <v>30.44</v>
+      </c>
+      <c r="B22">
+        <v>110.1</v>
+      </c>
+      <c r="C22">
         <v>12.18</v>
       </c>
-      <c r="B22">
+      <c r="D22">
         <v>8.6920000000000002</v>
       </c>
-      <c r="C22">
+      <c r="E22">
         <v>17.63</v>
       </c>
-      <c r="D22">
+      <c r="F22">
         <v>9.7159999999999993</v>
       </c>
-      <c r="E22">
+      <c r="G22">
         <v>14.85</v>
       </c>
-      <c r="F22">
+      <c r="H22">
         <v>64.78</v>
       </c>
-      <c r="G22">
+      <c r="I22">
         <v>243.9</v>
       </c>
-      <c r="H22">
+      <c r="J22">
         <v>244.4</v>
       </c>
-      <c r="I22">
+      <c r="K22">
         <v>246.4</v>
       </c>
-      <c r="J22">
+      <c r="L22">
         <v>239.2</v>
       </c>
-      <c r="K22">
+      <c r="M22">
         <v>65.66</v>
       </c>
-      <c r="L22">
+      <c r="N22">
         <v>73.03</v>
       </c>
-      <c r="M22">
+      <c r="O22">
         <v>223.3</v>
       </c>
-      <c r="N22">
+      <c r="P22">
         <v>88.99</v>
       </c>
-      <c r="O22">
+      <c r="Q22">
         <v>83.31</v>
       </c>
-      <c r="P22">
+      <c r="R22">
         <v>80.17</v>
       </c>
-      <c r="Q22">
+      <c r="S22">
         <v>95.09</v>
       </c>
-      <c r="R22">
+      <c r="T22">
         <v>88.41</v>
       </c>
-      <c r="S22">
+      <c r="U22">
         <v>59.55</v>
       </c>
-      <c r="T22">
+      <c r="V22">
         <v>60.42</v>
       </c>
-      <c r="U22">
+      <c r="W22">
         <v>90.42</v>
       </c>
-      <c r="V22">
+      <c r="X22">
         <v>49.69</v>
       </c>
-      <c r="W22">
+      <c r="Y22">
         <v>50.83</v>
       </c>
-      <c r="X22">
+      <c r="Z22">
         <v>177.2</v>
       </c>
-      <c r="Y22">
+      <c r="AA22">
         <v>171.5</v>
       </c>
-      <c r="Z22">
+      <c r="AB22">
         <v>88.3</v>
       </c>
-      <c r="AA22">
+      <c r="AC22">
         <v>60.05</v>
       </c>
-      <c r="AB22">
+      <c r="AD22">
         <v>35.19</v>
       </c>
-      <c r="AC22">
+      <c r="AE22">
         <v>69.13</v>
       </c>
-      <c r="AD22">
+      <c r="AF22">
         <v>77</v>
       </c>
-      <c r="AE22">
+      <c r="AG22">
         <v>230.5</v>
       </c>
-      <c r="AF22">
+      <c r="AH22">
         <v>493.9</v>
       </c>
-      <c r="AG22">
+      <c r="AI22">
         <v>3.2519999999999998</v>
       </c>
-      <c r="AH22">
+      <c r="AJ22">
         <v>3526</v>
       </c>
-      <c r="AI22">
+      <c r="AK22">
+        <v>90.7</v>
+      </c>
+      <c r="AL22">
         <v>3.5209999999999999</v>
       </c>
-      <c r="AJ22">
-        <v>1.1180000000000001</v>
-      </c>
-      <c r="AK22">
+      <c r="AM22">
+        <v>1.2370000000000001</v>
+      </c>
+      <c r="AN22">
+        <v>123.7</v>
+      </c>
+      <c r="AO22">
+        <v>0.72599999999999998</v>
+      </c>
+      <c r="AP22">
         <v>12.01</v>
       </c>
-      <c r="AL22">
+      <c r="AQ22">
         <v>66.42</v>
       </c>
-      <c r="AM22">
+      <c r="AR22">
         <v>3.9430000000000001</v>
       </c>
-      <c r="AN22">
+      <c r="AS22">
         <v>61.44</v>
       </c>
-      <c r="AO22">
+      <c r="AT22">
         <v>521.5</v>
       </c>
-      <c r="AP22">
+      <c r="AU22">
         <v>583</v>
       </c>
-      <c r="AQ22">
+      <c r="AV22">
         <v>0.1178</v>
       </c>
-      <c r="AR22">
+      <c r="AW22">
         <v>1.603</v>
       </c>
-      <c r="AS22">
+      <c r="AX22">
         <v>3671</v>
       </c>
-      <c r="AT22">
+      <c r="AY22">
         <v>43814</v>
       </c>
-      <c r="AU22">
+      <c r="AZ22">
         <v>44098</v>
       </c>
-      <c r="AV22">
+      <c r="BA22">
         <v>3.766</v>
       </c>
-      <c r="AW22">
+      <c r="BB22">
         <v>20.38</v>
       </c>
-      <c r="AX22">
+      <c r="BC22">
         <v>34.479999999999997</v>
       </c>
-      <c r="AY22">
+      <c r="BD22">
         <v>55.93</v>
+      </c>
+    </row>
+    <row r="23" spans="1:56" x14ac:dyDescent="0.35">
+      <c r="A23">
+        <v>40.700000000000003</v>
+      </c>
+      <c r="B23">
+        <v>120.2</v>
+      </c>
+      <c r="C23">
+        <v>12.95</v>
+      </c>
+      <c r="D23">
+        <v>10.53</v>
+      </c>
+      <c r="E23">
+        <v>17.72</v>
+      </c>
+      <c r="F23">
+        <v>11.41</v>
+      </c>
+      <c r="G23">
+        <v>14.7</v>
+      </c>
+      <c r="H23">
+        <v>78.819999999999993</v>
+      </c>
+      <c r="I23">
+        <v>281.2</v>
+      </c>
+      <c r="J23">
+        <v>281.60000000000002</v>
+      </c>
+      <c r="K23">
+        <v>283.2</v>
+      </c>
+      <c r="L23">
+        <v>273</v>
+      </c>
+      <c r="M23">
+        <v>79.89</v>
+      </c>
+      <c r="N23">
+        <v>86.6</v>
+      </c>
+      <c r="O23">
+        <v>258.10000000000002</v>
+      </c>
+      <c r="P23">
+        <v>105.1</v>
+      </c>
+      <c r="Q23">
+        <v>92.91</v>
+      </c>
+      <c r="R23">
+        <v>80.8</v>
+      </c>
+      <c r="S23">
+        <v>93.66</v>
+      </c>
+      <c r="T23">
+        <v>98.34</v>
+      </c>
+      <c r="U23">
+        <v>78.87</v>
+      </c>
+      <c r="V23">
+        <v>79.489999999999995</v>
+      </c>
+      <c r="W23">
+        <v>100.2</v>
+      </c>
+      <c r="X23">
+        <v>60.84</v>
+      </c>
+      <c r="Y23">
+        <v>61.51</v>
+      </c>
+      <c r="Z23">
+        <v>184.3</v>
+      </c>
+      <c r="AA23">
+        <v>179.3</v>
+      </c>
+      <c r="AB23">
+        <v>98.4</v>
+      </c>
+      <c r="AC23">
+        <v>78.91</v>
+      </c>
+      <c r="AD23">
+        <v>49.18</v>
+      </c>
+      <c r="AE23">
+        <v>78.290000000000006</v>
+      </c>
+      <c r="AF23">
+        <v>85.77</v>
+      </c>
+      <c r="AG23">
+        <v>229.9</v>
+      </c>
+      <c r="AH23">
+        <v>617.9</v>
+      </c>
+      <c r="AI23">
+        <v>3.1389999999999998</v>
+      </c>
+      <c r="AJ23">
+        <v>3968</v>
+      </c>
+      <c r="AK23">
+        <v>90.95</v>
+      </c>
+      <c r="AL23">
+        <v>3.5339999999999998</v>
+      </c>
+      <c r="AM23">
+        <v>1.242</v>
+      </c>
+      <c r="AN23">
+        <v>124.2</v>
+      </c>
+      <c r="AO23">
+        <v>0.73370000000000002</v>
+      </c>
+      <c r="AP23">
+        <v>12.06</v>
+      </c>
+      <c r="AQ23">
+        <v>66.959999999999994</v>
+      </c>
+      <c r="AR23">
+        <v>4.3650000000000002</v>
+      </c>
+      <c r="AS23">
+        <v>52.44</v>
+      </c>
+      <c r="AT23">
+        <v>632</v>
+      </c>
+      <c r="AU23">
+        <v>684.5</v>
+      </c>
+      <c r="AV23">
+        <v>8.2979999999999998E-2</v>
+      </c>
+      <c r="AW23">
+        <v>1.52</v>
+      </c>
+      <c r="AX23">
+        <v>4149</v>
+      </c>
+      <c r="AY23">
+        <v>49972</v>
+      </c>
+      <c r="AZ23">
+        <v>50029</v>
+      </c>
+      <c r="BA23">
+        <v>3.5680000000000001</v>
+      </c>
+      <c r="BB23">
+        <v>20.81</v>
+      </c>
+      <c r="BC23">
+        <v>35.93</v>
+      </c>
+      <c r="BD23">
+        <v>64.25</v>
       </c>
     </row>
   </sheetData>
